--- a/anexos/analisis-economico/analis-economico.xlsx
+++ b/anexos/analisis-economico/analis-economico.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar.duenas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Documents\u\APMG1\Tile-Tech\anexos\analisis-economico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA4B0E6-947D-4810-B103-3AF0257FA592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E8D580-8D7F-4131-925B-AA3AFA9786C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F88F103A-AD35-45C9-9307-C4B5E54861C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{F88F103A-AD35-45C9-9307-C4B5E54861C8}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTUAL" sheetId="2" r:id="rId1"/>
     <sheet name="PROPUESTA" sheetId="3" r:id="rId2"/>
-    <sheet name="FLUJO DE CAJA " sheetId="1" r:id="rId3"/>
+    <sheet name="CRONOGRAMA" sheetId="5" r:id="rId3"/>
+    <sheet name="POSTERIOR PROYECTO" sheetId="7" r:id="rId4"/>
+    <sheet name="FLUJO DE CAJA " sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="163">
   <si>
     <t>PRODUCCION M2</t>
   </si>
@@ -268,9 +270,6 @@
     <t>VALOR</t>
   </si>
   <si>
-    <t>PRECIO VENTA M2</t>
-  </si>
-  <si>
     <t>TOTAL COSTOS Y GASTOS</t>
   </si>
   <si>
@@ -349,9 +348,6 @@
     <t>Capacitacion y entrenamiento al personal</t>
   </si>
   <si>
-    <t>DISEÑO Automatizacion planta</t>
-  </si>
-  <si>
     <t>NUMERO</t>
   </si>
   <si>
@@ -376,9 +372,6 @@
     <t>Ingeniero en formacion</t>
   </si>
   <si>
-    <t>SERIVICIOS</t>
-  </si>
-  <si>
     <t>9 MESES</t>
   </si>
   <si>
@@ -391,8 +384,153 @@
     <t>ASESORIA Y ACOMPAÑAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultoria del proyecto 6 MESES
+    <t>PRECIO VENTA M2 calidad 1</t>
+  </si>
+  <si>
+    <t>% calida 1 80%</t>
+  </si>
+  <si>
+    <t>% cslidad 2  20%</t>
+  </si>
+  <si>
+    <t>DISEÑO AUTOMATIZACION PLANTA</t>
+  </si>
+  <si>
+    <t>SERIVICIOS INTALACION</t>
+  </si>
+  <si>
+    <t>VALOR CON IVA</t>
+  </si>
+  <si>
+    <t>Controlador</t>
+  </si>
+  <si>
+    <t>Reja separadora</t>
+  </si>
+  <si>
+    <t>Markup por Riesgos</t>
+  </si>
+  <si>
+    <t>PRECIO ESTIMADO DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRONOGRMA IMPLEMETACIÓN </t>
+  </si>
+  <si>
+    <t>MESES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVALUCION Y DISEÑO </t>
+  </si>
+  <si>
+    <t>ADQUISION Y RECEPCION EQUIPOS</t>
+  </si>
+  <si>
+    <t>ISNTALACION Y PUESTA EN FUNCIONAMIENTO PROPUESTA</t>
+  </si>
+  <si>
+    <t>ESTABILIZACION PRODUCCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRONOGRMA PAGOS </t>
+  </si>
+  <si>
+    <t>ANTICIPO</t>
+  </si>
+  <si>
+    <t>1 PAGO PARCIAL</t>
+  </si>
+  <si>
+    <t>2 PAGO</t>
+  </si>
+  <si>
+    <t>3 PAGO</t>
+  </si>
+  <si>
+    <t>ULTIMO PAGO</t>
+  </si>
+  <si>
+    <t>VALOR PROYECTO</t>
+  </si>
+  <si>
+    <t>PROYECTO INVERSION</t>
+  </si>
+  <si>
+    <t>SALDO FINAL</t>
+  </si>
+  <si>
+    <t>Fábrica produce 8820 baldosas por hora</t>
+  </si>
+  <si>
+    <t>Se aumenta la produccion al superar el cuello de botella del esmaltado por lo cual el limite de produccion lo da el Horno.
+Se reducen la perdidas de 3,4% AL 2,05%</t>
+  </si>
+  <si>
+    <t>% VARIACION</t>
+  </si>
+  <si>
+    <t>VALOR ACTAUL</t>
+  </si>
+  <si>
+    <t>VALOR POSTERIOR PROYECTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTOS </t>
+  </si>
+  <si>
+    <t>sin automatización</t>
+  </si>
+  <si>
+    <t>costo del proyecto</t>
+  </si>
+  <si>
+    <t>ACUMULADO</t>
+  </si>
+  <si>
+    <t>SALDO</t>
+  </si>
+  <si>
+    <t>EGRESOS +INVERSION</t>
+  </si>
+  <si>
+    <t>PRECIO VENTA M2 calidad 2</t>
+  </si>
+  <si>
+    <t>CANTIDA MES [kg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultoria del proyecto 12 MESES
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defectos </t>
+  </si>
+  <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
+    <t>Produccion final baldosas por hora</t>
+  </si>
+  <si>
+    <t>Produccion final en M2 por hora</t>
+  </si>
+  <si>
+    <t>Produccion final baldosas por mes</t>
+  </si>
+  <si>
+    <t>Produccion final en M2 por mes</t>
+  </si>
+  <si>
+    <t>% calidad 2  20%</t>
+  </si>
+  <si>
+    <t>Inicio de instalacion de equipos y la produción se afecta en un 50%</t>
+  </si>
+  <si>
+    <t>Perido de transición produción en un</t>
   </si>
 </sst>
 </file>
@@ -407,7 +545,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,13 +598,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -488,12 +639,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -619,6 +782,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -738,6 +916,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -886,6 +1077,32 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -896,17 +1113,15 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -917,20 +1132,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -953,74 +1160,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1033,28 +1196,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1066,43 +1211,183 @@
     <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1116,7 +1401,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1432,1050 +1717,1075 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAC403C-54EA-4DB7-A3C6-5ABA5B343DBD}">
-  <dimension ref="B2:G73"/>
+  <dimension ref="B2:G76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="104" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="77" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6">
         <v>7200</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="104" t="s">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="78">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="104" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="77" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="9">
         <f>7200*0.9613</f>
         <v>6921.3600000000006</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="104" t="s">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="106">
+      <c r="C6" s="79">
         <v>0.95599999999999996</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="104" t="s">
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="77" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="9">
         <f>+C5*C6</f>
         <v>6616.8201600000002</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="104" t="s">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="77" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="9">
         <f>+C7/25</f>
         <v>264.67280640000001</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="104" t="s">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="77" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9">
         <f>+C7*24*30</f>
         <v>4764110.5152000003</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="104" t="s">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="77" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="9">
         <f>+C8*24*30</f>
         <v>190564.42060800001</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="10">
-        <f>30800*0.9</f>
-        <v>27720</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="107" t="s">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="9">
+        <f>+C10*0.8</f>
+        <v>152451.53648640003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="9">
+        <f>+C10*0.2</f>
+        <v>38112.884121600007</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="10">
+        <f>30800</f>
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="10">
+        <f>+C13*60%</f>
+        <v>18480</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="11">
-        <f>+INT(C10)*C11</f>
-        <v>5282434080</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="102"/>
-      <c r="C13" s="95"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="103"/>
-      <c r="C14" s="22"/>
-    </row>
-    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+      <c r="C15" s="11">
+        <f>+INT(C11)*C13+INT(C12)*C14</f>
+        <v>5399800560</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="75"/>
+      <c r="C16" s="69"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="76"/>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B18" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="2:5" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+    </row>
+    <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="C20" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E20" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C21" s="138">
         <v>2302716</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D21" s="6">
         <v>572</v>
       </c>
-      <c r="E18" s="13">
-        <f>+D18*C18</f>
+      <c r="E21" s="13">
+        <f>+D21*C21</f>
         <v>1317153552</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C22" s="138">
         <v>1151358</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D22" s="6">
         <v>220</v>
       </c>
-      <c r="E19" s="13">
-        <f t="shared" ref="E19:E23" si="0">+D19*C19</f>
+      <c r="E22" s="13">
+        <f t="shared" ref="E22:E26" si="0">+D22*C22</f>
         <v>253298760</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C23" s="138">
         <v>690814.79999999993</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D23" s="6">
         <v>272</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>187901625.59999999</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C24" s="138">
         <v>322380.24000000005</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D24" s="6">
         <v>879</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E24" s="13">
         <f t="shared" si="0"/>
         <v>283372230.96000004</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C25" s="138">
         <v>138162.96</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D25" s="6">
         <v>770</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E25" s="13">
         <f t="shared" si="0"/>
         <v>106385479.19999999</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C26" s="138">
         <v>92568</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D26" s="6">
         <v>900</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E26" s="13">
         <f t="shared" si="0"/>
         <v>83311200</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="42">
-        <f>SUM(E18:E23)</f>
+      <c r="C27" s="118"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="32">
+        <f>SUM(E21:E26)</f>
         <v>2231422847.7599998</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+    </row>
+    <row r="30" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C30" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D30" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E30" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C31" s="6">
         <v>141120</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D31" s="22">
         <v>2219</v>
       </c>
-      <c r="E28" s="10">
-        <f>+D28*C28</f>
+      <c r="E31" s="10">
+        <f>+D31*C31</f>
         <v>313145280</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C32" s="6">
         <v>18000</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D32" s="22">
         <v>2219</v>
       </c>
-      <c r="E29" s="10">
-        <f t="shared" ref="E29:E31" si="1">+D29*C29</f>
+      <c r="E32" s="10">
+        <f t="shared" ref="E32:E34" si="1">+D32*C32</f>
         <v>39942000</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C33" s="6">
         <v>108000</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D33" s="22">
         <v>2219</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E33" s="10">
         <f t="shared" si="1"/>
         <v>239652000</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="33">
-        <f>SUM(C28:C30)</f>
+      <c r="C34" s="23">
+        <f>SUM(C31:C33)</f>
         <v>267120</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D34" s="24">
         <v>2219</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E34" s="25">
         <f t="shared" si="1"/>
         <v>592739280</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="31" t="s">
+    <row r="35" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C35" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D35" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E35" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C36" s="30">
         <v>36000</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D36" s="22">
         <v>845</v>
       </c>
-      <c r="E33" s="10">
-        <f>+D33*C33</f>
+      <c r="E36" s="10">
+        <f>+D36*C36</f>
         <v>30420000</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C37" s="30">
         <v>96000</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D37" s="22">
         <v>845</v>
       </c>
-      <c r="E34" s="10">
-        <f t="shared" ref="E34:E44" si="2">+D34*C34</f>
+      <c r="E37" s="10">
+        <f t="shared" ref="E37:E47" si="2">+D37*C37</f>
         <v>81120000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C38" s="30">
         <v>24000</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D38" s="22">
         <v>845</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E38" s="10">
         <f t="shared" si="2"/>
         <v>20280000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C39" s="30">
         <v>1500</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D39" s="22">
         <v>845</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E39" s="10">
         <f t="shared" si="2"/>
         <v>1267500</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C40" s="30">
         <v>21600</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D40" s="22">
         <v>845</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E40" s="10">
         <f t="shared" si="2"/>
         <v>18252000</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C41" s="30">
         <v>1700</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D41" s="22">
         <v>845</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E41" s="10">
         <f t="shared" si="2"/>
         <v>1436500</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C42" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D42" s="22">
         <v>845</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E42" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C43" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D43" s="22">
         <v>845</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E43" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C44" s="30">
         <v>12600</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D44" s="22">
         <v>845</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E44" s="10">
         <f t="shared" si="2"/>
         <v>10647000</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="28">
-        <f>SUM(C33:C41)</f>
+      <c r="C45" s="26">
+        <f>SUM(C36:C44)</f>
         <v>193400</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D45" s="24">
         <v>845</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E45" s="25">
         <f t="shared" si="2"/>
         <v>163423000</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="25" t="s">
+    <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B46" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C46" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D46" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E46" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="25" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C47" s="23">
         <v>86400</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D47" s="23">
         <v>28.7</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E47" s="25">
         <f t="shared" si="2"/>
         <v>2479680</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="37" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39">
-        <f>+E44+E42+E31</f>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="31">
+        <f>+E47+E45+E34</f>
         <v>758641960</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="68" t="s">
+    <row r="51" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C51" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D51" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="70" t="s">
+      <c r="E51" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="70" t="s">
+      <c r="F51" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="71" t="s">
+      <c r="G51" s="53" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="72" t="s">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6">
-        <v>4</v>
-      </c>
-      <c r="F49" s="10">
-        <f>1700000*1.56</f>
-        <v>2652000</v>
-      </c>
-      <c r="G49" s="13">
-        <f>+F49*E49</f>
-        <v>10608000</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="73"/>
-      <c r="C50" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="6">
-        <v>4</v>
-      </c>
-      <c r="F50" s="10">
-        <f>1700000*1.56</f>
-        <v>2652000</v>
-      </c>
-      <c r="G50" s="13">
-        <f>+F50*E50</f>
-        <v>10608000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="73"/>
-      <c r="C51" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="6">
-        <v>2</v>
-      </c>
-      <c r="E51" s="6">
-        <v>8</v>
-      </c>
-      <c r="F51" s="10">
-        <f>1700000*1.56</f>
-        <v>2652000</v>
-      </c>
-      <c r="G51" s="13">
-        <f>+F51*E51</f>
-        <v>21216000</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="73"/>
-      <c r="C52" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
       </c>
       <c r="E52" s="6">
+        <f>4*D52</f>
         <v>4</v>
       </c>
       <c r="F52" s="10">
-        <f>1700000*1.56</f>
+        <f t="shared" ref="F52:F58" si="3">1700000*1.56</f>
         <v>2652000</v>
       </c>
       <c r="G52" s="13">
-        <f>+F52*E52</f>
+        <f t="shared" ref="G52:G61" si="4">+F52*E52</f>
         <v>10608000</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="73"/>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="112"/>
       <c r="C53" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D53" s="6">
         <v>1</v>
       </c>
       <c r="E53" s="6">
+        <f t="shared" ref="E53:E59" si="5">4*D53</f>
         <v>4</v>
       </c>
       <c r="F53" s="10">
-        <f>1700000*1.56</f>
+        <f t="shared" si="3"/>
         <v>2652000</v>
       </c>
       <c r="G53" s="13">
-        <f>+F53*E53</f>
+        <f t="shared" si="4"/>
         <v>10608000</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="73"/>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="112"/>
       <c r="C54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="F54" s="10">
+        <f t="shared" si="3"/>
+        <v>2652000</v>
+      </c>
+      <c r="G54" s="13">
+        <f t="shared" si="4"/>
+        <v>21216000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="112"/>
+      <c r="C55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" si="3"/>
+        <v>2652000</v>
+      </c>
+      <c r="G55" s="13">
+        <f t="shared" si="4"/>
+        <v>10608000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="112"/>
+      <c r="C56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="3"/>
+        <v>2652000</v>
+      </c>
+      <c r="G56" s="13">
+        <f t="shared" si="4"/>
+        <v>10608000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="112"/>
+      <c r="C57" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D57" s="6">
         <v>4</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E57" s="6">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="F54" s="10">
-        <f>1700000*1.56</f>
+      <c r="F57" s="10">
+        <f t="shared" si="3"/>
         <v>2652000</v>
       </c>
-      <c r="G54" s="13">
-        <f>+F54*E54</f>
+      <c r="G57" s="13">
+        <f t="shared" si="4"/>
         <v>42432000</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="73"/>
-      <c r="C55" s="6" t="s">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="112"/>
+      <c r="C58" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D58" s="6">
         <v>6</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E58" s="6">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="F55" s="10">
-        <f>1700000*1.56</f>
+      <c r="F58" s="10">
+        <f t="shared" si="3"/>
         <v>2652000</v>
       </c>
-      <c r="G55" s="13">
-        <f>+F55*E55</f>
+      <c r="G58" s="13">
+        <f t="shared" si="4"/>
         <v>63648000</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="74"/>
-      <c r="C56" s="6" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="113"/>
+      <c r="C59" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="6">
-        <f>SUM(D49:D55)</f>
+      <c r="D59" s="6">
+        <f>SUM(D52:D58)</f>
         <v>16</v>
       </c>
-      <c r="E56" s="6">
-        <f>SUM(E49:E55)</f>
+      <c r="E59" s="6">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="13">
-        <f>+F56*E56</f>
+      <c r="F59" s="10"/>
+      <c r="G59" s="13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="75" t="s">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="6">
+      <c r="C60" s="125"/>
+      <c r="D60" s="6">
         <v>2</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E60" s="6">
         <v>8</v>
       </c>
-      <c r="F57" s="10">
-        <f>+F54*3</f>
+      <c r="F60" s="10">
+        <f>+F57*3</f>
         <v>7956000</v>
       </c>
-      <c r="G57" s="13">
-        <f>+F57*E57</f>
+      <c r="G60" s="13">
+        <f t="shared" si="4"/>
         <v>63648000</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="76" t="s">
+    <row r="61" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="63">
+      <c r="C61" s="109"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="47">
         <v>1</v>
       </c>
-      <c r="F58" s="64">
+      <c r="F61" s="48">
         <f>7000000*1.56</f>
         <v>10920000</v>
       </c>
-      <c r="G58" s="77">
-        <f>+F58*E58</f>
+      <c r="G61" s="54">
+        <f t="shared" si="4"/>
         <v>10920000</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="65" t="s">
+    <row r="62" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67">
-        <f>SUM(G49:G58)</f>
+      <c r="C62" s="115"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="115"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="49">
+        <f>SUM(G52:G61)</f>
         <v>244296000</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="39"/>
-    </row>
-    <row r="61" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="59" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="31"/>
+    </row>
+    <row r="64" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="39"/>
-    </row>
-    <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="58" t="s">
+      <c r="C64" s="116"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="31"/>
+    </row>
+    <row r="65" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C65" s="46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="56" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="57">
-        <f>+E24</f>
+      <c r="C66" s="44">
+        <f>+E27</f>
         <v>2231422847.7599998</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="12" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="51">
-        <f>+E45</f>
+      <c r="C67" s="38">
+        <f>+E48</f>
         <v>758641960</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="51">
-        <f>+G59</f>
+      <c r="C68" s="38">
+        <f>+G62</f>
         <v>244296000</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="12" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="51">
-        <f>+C12*1%</f>
-        <v>52824340.800000004</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="12" t="s">
+      <c r="C69" s="38">
+        <f>+C15*1%</f>
+        <v>53998005.600000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="51">
-        <f>+PROPUESTA!L22</f>
-        <v>29594935.788599998</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="52" t="s">
+      <c r="C70" s="38">
+        <f>+PROPUESTA!L24</f>
+        <v>44720100.233044446</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="53">
-        <f>SUM(C63:C67)</f>
-        <v>3316780084.3485999</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="52" t="s">
+      <c r="C71" s="40">
+        <f>SUM(C66:C70)</f>
+        <v>3333078913.5930443</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="53">
-        <f>+C68*0.25</f>
-        <v>829195021.08714998</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="54" t="s">
+      <c r="C72" s="40">
+        <f>+C71*0.25</f>
+        <v>833269728.39826107</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="42">
+        <f>+C72+C71</f>
+        <v>4166348641.9913054</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="55">
-        <f>+C69+C68</f>
-        <v>4145975105.43575</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="78" t="s">
+      <c r="C75" s="35">
+        <f>+C15-C73</f>
+        <v>1233451918.0086946</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="47">
-        <f>+C12-C70</f>
-        <v>1136458974.56425</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="80">
-        <f>+C72/C12</f>
-        <v>0.21513926295209915</v>
+      <c r="C76" s="57">
+        <f>+C75/C15</f>
+        <v>0.22842545836705766</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2983426-E21D-4B87-859C-E536AB3C07D4}">
-  <dimension ref="B2:L41"/>
+  <dimension ref="B2:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="126" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="81" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C13" s="2">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="58" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C15" s="4">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="3">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="23" t="s">
+      <c r="D16" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="G16" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="H16" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="23" t="s">
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="83">
+      <c r="C17" s="59">
         <v>10000</v>
       </c>
       <c r="D17" s="10">
         <f>+C17*$C$15</f>
         <v>39000000</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="60">
         <v>0.05</v>
       </c>
       <c r="F17" s="10">
         <f>+D17*1.05</f>
         <v>40950000</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="60">
         <v>0.19</v>
       </c>
       <c r="H17" s="10">
@@ -2483,77 +2793,77 @@
         <v>48730500</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="59">
+        <v>80946.67</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" ref="D18:D23" si="0">+C18*$C$15</f>
+        <v>315692013</v>
+      </c>
+      <c r="E18" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18:F23" si="1">+D18*1.05</f>
+        <v>331476613.65000004</v>
+      </c>
+      <c r="G18" s="60">
+        <v>0.19</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" ref="H18:H23" si="2">+F18*1.19</f>
+        <v>394457170.24350005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="83">
-        <v>80946.67</v>
-      </c>
-      <c r="D18" s="10">
-        <f t="shared" ref="D18:D21" si="0">+C18*$C$15</f>
-        <v>315692013</v>
-      </c>
-      <c r="E18" s="84">
-        <v>0.05</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" ref="F18:F21" si="1">+D18*1.05</f>
-        <v>331476613.65000004</v>
-      </c>
-      <c r="G18" s="84">
-        <v>0.19</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" ref="H18:H21" si="2">+F18*1.19</f>
-        <v>394457170.24350005</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="101">
-        <v>32000</v>
+      <c r="C19" s="62">
+        <v>82000</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" si="0"/>
-        <v>124800000</v>
-      </c>
-      <c r="E19" s="84">
+        <v>319800000</v>
+      </c>
+      <c r="E19" s="60">
         <v>0.05</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="1"/>
-        <v>131040000</v>
-      </c>
-      <c r="G19" s="84">
+        <v>335790000</v>
+      </c>
+      <c r="G19" s="60">
         <v>0.19</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" si="2"/>
-        <v>155937600</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="86">
+        <v>399590100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="62">
         <v>12700</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="0"/>
         <v>49530000</v>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="60">
         <v>0.05</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="1"/>
         <v>52006500</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="60">
         <v>0.19</v>
       </c>
       <c r="H20" s="10">
@@ -2561,253 +2871,344 @@
         <v>61887735</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="64">
-        <v>1000</v>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="83">
+        <v>15000</v>
       </c>
       <c r="D21" s="10">
         <f t="shared" si="0"/>
+        <v>58500000</v>
+      </c>
+      <c r="E21" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" ref="F21" si="3">+D21*1.05</f>
+        <v>61425000</v>
+      </c>
+      <c r="G21" s="60">
+        <v>0.19</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" ref="H21" si="4">+F21*1.19</f>
+        <v>73095750</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="83"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="48">
+        <v>20000000</v>
+      </c>
+      <c r="G22" s="60">
+        <v>0.19</v>
+      </c>
+      <c r="H22" s="10">
+        <f>+F22*1.19</f>
+        <v>23800000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="10">
         <v>3900000</v>
       </c>
-      <c r="E21" s="87">
-        <v>0.05</v>
-      </c>
-      <c r="F21" s="64">
-        <f t="shared" si="1"/>
-        <v>4095000</v>
-      </c>
-      <c r="G21" s="87">
+      <c r="E23" s="63"/>
+      <c r="F23" s="48">
+        <f>+D23</f>
+        <v>3900000</v>
+      </c>
+      <c r="G23" s="63">
         <v>0.19</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H23" s="10">
         <f t="shared" si="2"/>
-        <v>4873050</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="88" t="s">
+        <v>4641000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92">
-        <f>SUM(H17:H21)</f>
-        <v>665886055.24349999</v>
-      </c>
-      <c r="K22">
-        <f>+H22/15/12</f>
-        <v>3699366.9735749997</v>
-      </c>
-      <c r="L22">
-        <f>+K22*8</f>
-        <v>29594935.788599998</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="94"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68">
+        <f>SUM(H17:H23)</f>
+        <v>1006202255.2435</v>
+      </c>
+      <c r="K24">
+        <f>+H24/15/12</f>
+        <v>5590012.5291305557</v>
+      </c>
+      <c r="L24">
+        <f>+K24*8</f>
+        <v>44720100.233044446</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="127" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="128"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="10">
         <f>+H17*15%</f>
         <v>7309575</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="10">
+        <f>+H18*15%</f>
+        <v>59168575.536525004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:C27" si="3">+H18*15%</f>
-        <v>59168575.536525004</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="C29" s="10">
+        <f>+H19*15%</f>
+        <v>59938515</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="10">
-        <f t="shared" si="3"/>
-        <v>23390640</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="C30" s="10">
+        <f>+H20*150%</f>
+        <v>92831602.5</v>
+      </c>
+      <c r="H30" s="5">
+        <f>+H24+C31</f>
+        <v>1225450523.280025</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="34">
+        <f>SUM(C27:C30)</f>
+        <v>219248268.03652501</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="82">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="18">
+        <f>+C31*1.19</f>
+        <v>260905438.96346474</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="10">
-        <f t="shared" ref="C28" si="4">+H20*10%</f>
-        <v>6188773.5</v>
-      </c>
-      <c r="H28" s="4">
-        <f>+H22+C29</f>
-        <v>761943619.28002501</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="46">
-        <f>SUM(C25:C28)</f>
-        <v>96057564.036525011</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
+      <c r="D35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="6" t="s">
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="6">
+        <v>4</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2500000</v>
+      </c>
+      <c r="E36" s="10">
+        <f>+D36*1.56</f>
+        <v>3900000</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="10">
+        <f>+E36*9</f>
+        <v>35100000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" ref="G37:G39" si="5">+E37*9</f>
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="6">
-        <v>4</v>
-      </c>
-      <c r="D32" s="10">
-        <v>2500000</v>
-      </c>
-      <c r="E32" s="10">
-        <f>+D32*1.56</f>
-        <v>3900000</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="10">
-        <f>+E32*9</f>
-        <v>35100000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="10">
-        <v>4000000</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="10">
-        <f t="shared" ref="G33:G35" si="5">+E33*9</f>
-        <v>36000000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="10">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="10">
         <v>2000000</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="10">
+      <c r="F38" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="10">
         <f t="shared" si="5"/>
         <v>18000000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48">
+        <v>1000000</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="64">
-        <v>1000000</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="10">
+      <c r="G39" s="10">
         <f t="shared" si="5"/>
         <v>9000000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="96" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="100">
-        <f>SUM(G32:G35)</f>
+      <c r="C40" s="71"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="74">
+        <f>SUM(G36:G39)</f>
         <v>98100000</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="48">
-        <f>+G36</f>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="81">
+        <f>+C13</f>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="36">
+        <f>+H24</f>
+        <v>1006202255.2435</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="36">
+        <f>+C33</f>
+        <v>260905438.96346474</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="36">
+        <f>+G40</f>
         <v>98100000</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="48">
-        <f>+H22</f>
-        <v>665886055.24349999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="48">
-        <f>+C36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+    <row r="46" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="49">
-        <f>SUM(C38:C40)</f>
-        <v>763986055.24349999</v>
+      <c r="C46" s="37">
+        <f>SUM(C43:C44)</f>
+        <v>1267107694.2069647</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="85">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="2">
+        <f>+C46*1.3</f>
+        <v>1647240002.4690542</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="2">
+        <f>+C48*1.2</f>
+        <v>1976688002.9628649</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
@@ -2818,106 +3219,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADFFA1A-762C-454E-8EB2-63C69813CEF7}">
-  <dimension ref="A2:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40BF07B-C8D6-4625-88E0-C4F1A65093DC}">
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="130">
+        <f>+PROPUESTA!C50</f>
+        <v>1976688002.9628649</v>
+      </c>
+      <c r="D1" s="130"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>30800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="F5" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
-      <c r="F4" s="23">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H5" s="6">
         <v>5</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I5" s="6">
         <v>6</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J5" s="6">
         <v>7</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K5" s="6">
         <v>8</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L5" s="6">
         <v>9</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M5" s="6">
         <v>10</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N5" s="6">
         <v>11</v>
       </c>
-      <c r="O4" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44">
-        <f>+INT(ACTUAL!C10)</f>
-        <v>190564</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46">
-        <f>+C5*C2</f>
-        <v>5869371200</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -2927,33 +3314,27 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+    </row>
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
+    </row>
+    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2961,18 +3342,16 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
+    </row>
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2983,16 +3362,12 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="21"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -3005,12 +3380,10 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3024,14 +3397,14 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="107">
+        <v>0.2</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -3043,17 +3416,17 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="107">
+        <v>0.2</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -3062,32 +3435,2472 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="107">
+        <v>0.2</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="107">
+        <v>0.3</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="107">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="10">
+        <f>+C1*$C$12</f>
+        <v>395337600.59257299</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="10">
+        <f>+C1*F13</f>
+        <v>395337600.59257299</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="10">
+        <f>+C1*H14</f>
+        <v>395337600.59257299</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="10">
+        <f>+C1*K15</f>
+        <v>593006400.88885939</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="10">
+        <f>+C1*N16</f>
+        <v>197668800.29628649</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D989884-3E5C-400A-BA14-73D8C7B1295A}">
+  <dimension ref="B1:H78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+    </row>
+    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7200</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8820</v>
+      </c>
+      <c r="E5" s="55">
+        <f>+D5/C5-1</f>
+        <v>0.22500000000000009</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="78">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D6" s="89">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="E6" s="55">
+        <f t="shared" ref="E6:E17" si="0">+D6/C6-1</f>
+        <v>-0.3970588235294118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <f>7200*0.9613</f>
+        <v>6921.3600000000006</v>
+      </c>
+      <c r="D7" s="9">
+        <f>+D5*(100%-D6)</f>
+        <v>8639.19</v>
+      </c>
+      <c r="E7" s="55">
+        <f t="shared" si="0"/>
+        <v>0.24819255175283472</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="79">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D8" s="90">
+        <f>+C8</f>
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E8" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="9">
+        <f>+C7*C8</f>
+        <v>6616.8201600000002</v>
+      </c>
+      <c r="D9" s="9">
+        <f>+D7*D8</f>
+        <v>8259.0656400000007</v>
+      </c>
+      <c r="E9" s="55">
+        <f t="shared" si="0"/>
+        <v>0.24819255175283472</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="9">
+        <f>+C9/25</f>
+        <v>264.67280640000001</v>
+      </c>
+      <c r="D10" s="9">
+        <f>+D9/25</f>
+        <v>330.3626256</v>
+      </c>
+      <c r="E10" s="55">
+        <f t="shared" si="0"/>
+        <v>0.24819255175283472</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="9">
+        <f>+C9*24*30</f>
+        <v>4764110.5152000003</v>
+      </c>
+      <c r="D11" s="9">
+        <f>+D9*24*30</f>
+        <v>5946527.2608000003</v>
+      </c>
+      <c r="E11" s="55">
+        <f t="shared" si="0"/>
+        <v>0.24819255175283472</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="105">
+        <f>+C10*24*30</f>
+        <v>190564.42060800001</v>
+      </c>
+      <c r="D12" s="105">
+        <f>+D10*24*30</f>
+        <v>237861.090432</v>
+      </c>
+      <c r="E12" s="55">
+        <f t="shared" si="0"/>
+        <v>0.2481925517528345</v>
+      </c>
+      <c r="H12" s="19">
+        <f>+D12-C12</f>
+        <v>47296.669823999982</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="9">
+        <f>+C12*0.8</f>
+        <v>152451.53648640003</v>
+      </c>
+      <c r="D13" s="9">
+        <f>+D12*0.8</f>
+        <v>190288.87234560002</v>
+      </c>
+      <c r="E13" s="55">
+        <f t="shared" si="0"/>
+        <v>0.2481925517528345</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="9">
+        <f>+C12*0.2</f>
+        <v>38112.884121600007</v>
+      </c>
+      <c r="D14" s="9">
+        <f>+D12*0.2</f>
+        <v>47572.218086400004</v>
+      </c>
+      <c r="E14" s="55">
+        <f t="shared" si="0"/>
+        <v>0.2481925517528345</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="10">
+        <f>30800</f>
+        <v>30800</v>
+      </c>
+      <c r="D15" s="10">
+        <f>30800</f>
+        <v>30800</v>
+      </c>
+      <c r="E15" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="10">
+        <f>+C15*60%</f>
+        <v>18480</v>
+      </c>
+      <c r="D16" s="10">
+        <f>+D15*60%</f>
+        <v>18480</v>
+      </c>
+      <c r="E16" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <f>+INT(C13)*C15+INT(C14)*C16</f>
+        <v>5399800560</v>
+      </c>
+      <c r="D17" s="11">
+        <f>+INT(D13)*D15+INT(D14)*D16</f>
+        <v>6740000960</v>
+      </c>
+      <c r="E17" s="55">
+        <f t="shared" si="0"/>
+        <v>0.2481944259067228</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="75"/>
+      <c r="C18" s="69"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="76"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B20" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+    </row>
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9">
+        <f>+ACTUAL!C21*1.23</f>
+        <v>2832340.68</v>
+      </c>
+      <c r="D23" s="6">
+        <v>572</v>
+      </c>
+      <c r="E23" s="13">
+        <f>+D23*C23</f>
+        <v>1620098868.96</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9">
+        <f>+ACTUAL!C22*1.23</f>
+        <v>1416170.34</v>
+      </c>
+      <c r="D24" s="6">
+        <v>220</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" ref="E24:E28" si="1">+D24*C24</f>
+        <v>311557474.80000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="9">
+        <f>+ACTUAL!C23*1.23</f>
+        <v>849702.20399999991</v>
+      </c>
+      <c r="D25" s="6">
+        <v>272</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="1"/>
+        <v>231118999.48799998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="9">
+        <f>+ACTUAL!C24*1.23</f>
+        <v>396527.69520000007</v>
+      </c>
+      <c r="D26" s="6">
+        <v>879</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="1"/>
+        <v>348547844.08080006</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9">
+        <f>+ACTUAL!C25*1.23</f>
+        <v>169940.44079999998</v>
+      </c>
+      <c r="D27" s="6">
+        <v>770</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>130854139.41599998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="9">
+        <f>+ACTUAL!C26*1.23</f>
+        <v>113858.64</v>
+      </c>
+      <c r="D28" s="6">
+        <v>900</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="1"/>
+        <v>102472776</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="118"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="32">
+        <f>SUM(E23:E28)</f>
+        <v>2744650102.7448001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+    </row>
+    <row r="32" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="9">
+        <f>+ACTUAL!C31*1.23</f>
+        <v>173577.60000000001</v>
+      </c>
+      <c r="D33" s="22">
+        <v>2219</v>
+      </c>
+      <c r="E33" s="10">
+        <f>+D33*C33</f>
+        <v>385168694.40000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="9">
+        <f>+ACTUAL!C32*1.23</f>
+        <v>22140</v>
+      </c>
+      <c r="D34" s="22">
+        <v>2219</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" ref="E34:E36" si="2">+D34*C34</f>
+        <v>49128660</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="9">
+        <f>+ACTUAL!C33*1.23</f>
+        <v>132840</v>
+      </c>
+      <c r="D35" s="22">
+        <v>2219</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="2"/>
+        <v>294771960</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="23">
+        <f>SUM(C33:C35)</f>
+        <v>328557.59999999998</v>
+      </c>
+      <c r="D36" s="24">
+        <v>2219</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="2"/>
+        <v>729069314.39999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="9">
+        <f>+ACTUAL!C36*1.23</f>
+        <v>44280</v>
+      </c>
+      <c r="D38" s="22">
+        <v>845</v>
+      </c>
+      <c r="E38" s="10">
+        <f>+D38*C38</f>
+        <v>37416600</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="9">
+        <f>+ACTUAL!C37*1.23</f>
+        <v>118080</v>
+      </c>
+      <c r="D39" s="22">
+        <v>845</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" ref="E39:E49" si="3">+D39*C39</f>
+        <v>99777600</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="9">
+        <f>+ACTUAL!C38*1.23</f>
+        <v>29520</v>
+      </c>
+      <c r="D40" s="22">
+        <v>845</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="3"/>
+        <v>24944400</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="9">
+        <f>+ACTUAL!C39*1.23</f>
+        <v>1845</v>
+      </c>
+      <c r="D41" s="22">
+        <v>845</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="3"/>
+        <v>1559025</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="9">
+        <f>+ACTUAL!C40*1.23</f>
+        <v>26568</v>
+      </c>
+      <c r="D42" s="22">
+        <v>845</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="3"/>
+        <v>22449960</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="9">
+        <f>+ACTUAL!C41*1.23</f>
+        <v>2091</v>
+      </c>
+      <c r="D43" s="22">
+        <v>845</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" si="3"/>
+        <v>1766895</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="30">
+        <v>26568</v>
+      </c>
+      <c r="D44" s="22">
+        <v>845</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="3"/>
+        <v>22449960</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="30">
+        <v>29520</v>
+      </c>
+      <c r="D45" s="22">
+        <v>845</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" si="3"/>
+        <v>24944400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="9">
+        <f>+ACTUAL!C44*1.23</f>
+        <v>15498</v>
+      </c>
+      <c r="D46" s="22">
+        <v>845</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="3"/>
+        <v>13095810</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="26">
+        <f>SUM(C38:C46)</f>
+        <v>293970</v>
+      </c>
+      <c r="D47" s="24">
+        <v>845</v>
+      </c>
+      <c r="E47" s="25">
+        <f t="shared" si="3"/>
+        <v>248404650</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="9">
+        <f>+ACTUAL!C47*1.23</f>
+        <v>106272</v>
+      </c>
+      <c r="D49" s="23">
+        <v>28.7</v>
+      </c>
+      <c r="E49" s="25">
+        <f t="shared" si="3"/>
+        <v>3050006.4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="123"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="31">
+        <f>+E49+E47+E36</f>
+        <v>980523970.79999995</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B53" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6">
+        <v>4</v>
+      </c>
+      <c r="F54" s="10">
+        <f t="shared" ref="F54:F60" si="4">1700000*1.56</f>
+        <v>2652000</v>
+      </c>
+      <c r="G54" s="13">
+        <f t="shared" ref="G54:G63" si="5">+F54*E54</f>
+        <v>10608000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="112"/>
+      <c r="C55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>4</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" si="4"/>
+        <v>2652000</v>
+      </c>
+      <c r="G55" s="13">
+        <f t="shared" si="5"/>
+        <v>10608000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="112"/>
+      <c r="C56" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>8</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="4"/>
+        <v>2652000</v>
+      </c>
+      <c r="G56" s="13">
+        <f t="shared" si="5"/>
+        <v>21216000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="112"/>
+      <c r="C57" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="6">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6">
+        <v>4</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" si="4"/>
+        <v>2652000</v>
+      </c>
+      <c r="G57" s="13">
+        <f t="shared" si="5"/>
+        <v>10608000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="112"/>
+      <c r="C58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6">
+        <v>4</v>
+      </c>
+      <c r="F58" s="10">
+        <f t="shared" si="4"/>
+        <v>2652000</v>
+      </c>
+      <c r="G58" s="13">
+        <f t="shared" si="5"/>
+        <v>10608000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="112"/>
+      <c r="C59" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>4</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" si="4"/>
+        <v>2652000</v>
+      </c>
+      <c r="G59" s="13">
+        <f t="shared" si="5"/>
+        <v>10608000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="112"/>
+      <c r="C60" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6">
+        <v>4</v>
+      </c>
+      <c r="F60" s="10">
+        <f t="shared" si="4"/>
+        <v>2652000</v>
+      </c>
+      <c r="G60" s="13">
+        <f t="shared" si="5"/>
+        <v>10608000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="113"/>
+      <c r="C61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="6">
+        <f>SUM(D54:D60)</f>
+        <v>8</v>
+      </c>
+      <c r="E61" s="6">
+        <f>SUM(E54:E60)</f>
+        <v>32</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="125"/>
+      <c r="D62" s="6">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6">
+        <v>8</v>
+      </c>
+      <c r="F62" s="10">
+        <f>+F59*3</f>
+        <v>7956000</v>
+      </c>
+      <c r="G62" s="13">
+        <f t="shared" si="5"/>
+        <v>63648000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="109"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="47">
+        <v>1</v>
+      </c>
+      <c r="F63" s="48">
+        <f>7000000*1.56</f>
+        <v>10920000</v>
+      </c>
+      <c r="G63" s="54">
+        <f t="shared" si="5"/>
+        <v>10920000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="115"/>
+      <c r="D64" s="115"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="49">
+        <f>SUM(G54:G63)</f>
+        <v>159432000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="31"/>
+    </row>
+    <row r="66" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="131"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="31"/>
+    </row>
+    <row r="67" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="98">
+        <f>+ACTUAL!C66</f>
+        <v>2231422847.7599998</v>
+      </c>
+      <c r="D68" s="98">
+        <f>+E29</f>
+        <v>2744650102.7448001</v>
+      </c>
+      <c r="E68" s="99">
+        <f>+D68/C68-1</f>
+        <v>0.2300000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="36">
+        <f>+ACTUAL!C67</f>
+        <v>758641960</v>
+      </c>
+      <c r="D69" s="36">
+        <f>+E50</f>
+        <v>980523970.79999995</v>
+      </c>
+      <c r="E69" s="91">
+        <f t="shared" ref="E69:E78" si="6">+D69/C69-1</f>
+        <v>0.29247263201734852</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="36">
+        <f>+ACTUAL!C68</f>
+        <v>244296000</v>
+      </c>
+      <c r="D70" s="36">
+        <f>+G64</f>
+        <v>159432000</v>
+      </c>
+      <c r="E70" s="91">
+        <f t="shared" si="6"/>
+        <v>-0.34738186462324394</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="36">
+        <f>+ACTUAL!C69</f>
+        <v>53998005.600000001</v>
+      </c>
+      <c r="D71" s="10">
+        <f>+D17*1%</f>
+        <v>67400009.599999994</v>
+      </c>
+      <c r="E71" s="91">
+        <f t="shared" si="6"/>
+        <v>0.24819442590672258</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="36">
+        <f>+ACTUAL!C70</f>
+        <v>44720100.233044446</v>
+      </c>
+      <c r="D72" s="36">
+        <f>+C72+PROPUESTA!K24</f>
+        <v>50310112.762175001</v>
+      </c>
+      <c r="E72" s="91">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="34">
+        <f>SUM(C68:C72)</f>
+        <v>3333078913.5930443</v>
+      </c>
+      <c r="D73" s="34">
+        <f>SUM(D68:D72)</f>
+        <v>4002316195.9069748</v>
+      </c>
+      <c r="E73" s="91">
+        <f t="shared" si="6"/>
+        <v>0.2007865099096906</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="34">
+        <f>+ACTUAL!C72</f>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="D74" s="34">
+        <f>+C74</f>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="E74" s="91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B75" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="37">
+        <f>+C74+C73</f>
+        <v>4166348641.9913054</v>
+      </c>
+      <c r="D75" s="37">
+        <f>+D74+D73</f>
+        <v>4835585924.3052359</v>
+      </c>
+      <c r="E75" s="91">
+        <f t="shared" si="6"/>
+        <v>0.16062920792775248</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="12"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="93"/>
+    </row>
+    <row r="77" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="37">
+        <f>+C17-C75</f>
+        <v>1233451918.0086946</v>
+      </c>
+      <c r="D77" s="37">
+        <f>+D17-D75</f>
+        <v>1904415035.6947641</v>
+      </c>
+      <c r="E77" s="91">
+        <f>+D77/C77-1</f>
+        <v>0.5439718467253134</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="96">
+        <f>+C77/C17</f>
+        <v>0.22842545836705766</v>
+      </c>
+      <c r="D78" s="96">
+        <f>+D77/D17</f>
+        <v>0.28255411935353258</v>
+      </c>
+      <c r="E78" s="97">
+        <f t="shared" si="6"/>
+        <v>0.23696422182283805</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="B62:C62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADFFA1A-762C-454E-8EB2-63C69813CEF7}">
+  <dimension ref="B1:Y25"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="AA22" sqref="AA22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="13" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="20.44140625" customWidth="1"/>
+    <col min="24" max="24" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="W1" s="143"/>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>30800</v>
+      </c>
+      <c r="J2" s="139" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="W2" s="143"/>
+    </row>
+    <row r="3" spans="2:25" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="88"/>
+      <c r="J3" s="140"/>
+      <c r="M3" s="141">
+        <v>0.9</v>
+      </c>
+      <c r="N3" s="141">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O3" s="142">
+        <v>1.25</v>
+      </c>
+      <c r="W3" s="143"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="136"/>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="21">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6">
+        <v>6</v>
+      </c>
+      <c r="K4" s="6">
+        <v>7</v>
+      </c>
+      <c r="L4" s="6">
+        <v>8</v>
+      </c>
+      <c r="M4" s="6">
+        <v>9</v>
+      </c>
+      <c r="N4" s="6">
+        <v>10</v>
+      </c>
+      <c r="O4" s="6">
+        <v>11</v>
+      </c>
+      <c r="P4" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>13</v>
+      </c>
+      <c r="R4" s="6">
+        <v>14</v>
+      </c>
+      <c r="S4" s="6">
+        <v>15</v>
+      </c>
+      <c r="T4" s="6">
+        <v>16</v>
+      </c>
+      <c r="U4" s="6">
+        <v>17</v>
+      </c>
+      <c r="V4" s="6">
+        <v>18</v>
+      </c>
+      <c r="W4" s="144">
+        <v>19</v>
+      </c>
+      <c r="X4" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B5" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="33">
+        <f>+INT(ACTUAL!C10)</f>
+        <v>190564</v>
+      </c>
+      <c r="E5" s="9">
+        <f>+D5</f>
+        <v>190564</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5" si="0">+E5</f>
+        <v>190564</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" ref="G5:I5" si="1">+F5</f>
+        <v>190564</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="1"/>
+        <v>190564</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="1"/>
+        <v>190564</v>
+      </c>
+      <c r="J5" s="9">
+        <f>+I5/2</f>
+        <v>95282</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" ref="K5:L7" si="2">+J5</f>
+        <v>95282</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="2"/>
+        <v>95282</v>
+      </c>
+      <c r="M5" s="9">
+        <f>+I5*0.9</f>
+        <v>171507.6</v>
+      </c>
+      <c r="N5" s="9">
+        <f>+I5*1.1</f>
+        <v>209620.40000000002</v>
+      </c>
+      <c r="O5" s="9">
+        <f>+'POSTERIOR PROYECTO'!D12</f>
+        <v>237861.090432</v>
+      </c>
+      <c r="P5" s="9">
+        <f>+'POSTERIOR PROYECTO'!D12</f>
+        <v>237861.090432</v>
+      </c>
+      <c r="W5" s="143"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B6" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="134"/>
+      <c r="D6" s="34">
+        <f>+ACTUAL!C15</f>
+        <v>5399800560</v>
+      </c>
+      <c r="E6" s="86">
+        <f>+D6</f>
+        <v>5399800560</v>
+      </c>
+      <c r="F6" s="86">
+        <f t="shared" ref="F6" si="3">+E6</f>
+        <v>5399800560</v>
+      </c>
+      <c r="G6" s="86">
+        <f t="shared" ref="G6:I6" si="4">+F6</f>
+        <v>5399800560</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="4"/>
+        <v>5399800560</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="4"/>
+        <v>5399800560</v>
+      </c>
+      <c r="J6" s="10">
+        <f>+I6/2</f>
+        <v>2699900280</v>
+      </c>
+      <c r="K6" s="36">
+        <f t="shared" si="2"/>
+        <v>2699900280</v>
+      </c>
+      <c r="L6" s="36">
+        <f t="shared" si="2"/>
+        <v>2699900280</v>
+      </c>
+      <c r="M6" s="10">
+        <f>+I6*0.9</f>
+        <v>4859820504</v>
+      </c>
+      <c r="N6" s="10">
+        <f>+I6*1.1</f>
+        <v>5939780616.000001</v>
+      </c>
+      <c r="O6" s="10">
+        <f>+'POSTERIOR PROYECTO'!D17</f>
+        <v>6740000960</v>
+      </c>
+      <c r="P6" s="10">
+        <f>+'POSTERIOR PROYECTO'!D17</f>
+        <v>6740000960</v>
+      </c>
+      <c r="W6" s="143"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B7" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="86">
+        <f>+ACTUAL!C66</f>
+        <v>2231422847.7599998</v>
+      </c>
+      <c r="E7" s="86">
+        <f t="shared" ref="E7:F12" si="5">+D7</f>
+        <v>2231422847.7599998</v>
+      </c>
+      <c r="F7" s="86">
+        <f t="shared" si="5"/>
+        <v>2231422847.7599998</v>
+      </c>
+      <c r="G7" s="86">
+        <f t="shared" ref="G7:I7" si="6">+F7</f>
+        <v>2231422847.7599998</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="6"/>
+        <v>2231422847.7599998</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="6"/>
+        <v>2231422847.7599998</v>
+      </c>
+      <c r="J7" s="10">
+        <f>+I7/2</f>
+        <v>1115711423.8799999</v>
+      </c>
+      <c r="K7" s="36">
+        <f t="shared" si="2"/>
+        <v>1115711423.8799999</v>
+      </c>
+      <c r="L7" s="36">
+        <f t="shared" si="2"/>
+        <v>1115711423.8799999</v>
+      </c>
+      <c r="M7" s="10">
+        <f>+I7*0.9</f>
+        <v>2008280562.9839997</v>
+      </c>
+      <c r="N7" s="10">
+        <f>+I7*1.1</f>
+        <v>2454565132.5359998</v>
+      </c>
+      <c r="O7" s="10">
+        <f>+'POSTERIOR PROYECTO'!D68</f>
+        <v>2744650102.7448001</v>
+      </c>
+      <c r="P7" s="10">
+        <f>+'POSTERIOR PROYECTO'!D68</f>
+        <v>2744650102.7448001</v>
+      </c>
+      <c r="W7" s="143"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="133"/>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="86">
+        <f>+ACTUAL!C67</f>
+        <v>758641960</v>
+      </c>
+      <c r="E8" s="86">
+        <f t="shared" si="5"/>
+        <v>758641960</v>
+      </c>
+      <c r="F8" s="86">
+        <f t="shared" si="5"/>
+        <v>758641960</v>
+      </c>
+      <c r="G8" s="86">
+        <f t="shared" ref="G8:I8" si="7">+F8</f>
+        <v>758641960</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="7"/>
+        <v>758641960</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="7"/>
+        <v>758641960</v>
+      </c>
+      <c r="J8" s="10">
+        <f>+I8*0.7</f>
+        <v>531049371.99999994</v>
+      </c>
+      <c r="K8" s="36">
+        <f t="shared" ref="K8:P12" si="8">+J8</f>
+        <v>531049371.99999994</v>
+      </c>
+      <c r="L8" s="36">
+        <f t="shared" si="8"/>
+        <v>531049371.99999994</v>
+      </c>
+      <c r="M8" s="10">
+        <f>+I8*0.9</f>
+        <v>682777764</v>
+      </c>
+      <c r="N8" s="10">
+        <f>+I8*1.1</f>
+        <v>834506156.00000012</v>
+      </c>
+      <c r="O8" s="10">
+        <f>+'POSTERIOR PROYECTO'!D69</f>
+        <v>980523970.79999995</v>
+      </c>
+      <c r="P8" s="10">
+        <f>+'POSTERIOR PROYECTO'!D69</f>
+        <v>980523970.79999995</v>
+      </c>
+      <c r="W8" s="143"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="133"/>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="86">
+        <f>+ACTUAL!C68</f>
+        <v>244296000</v>
+      </c>
+      <c r="E9" s="86">
+        <f t="shared" si="5"/>
+        <v>244296000</v>
+      </c>
+      <c r="F9" s="86">
+        <f t="shared" si="5"/>
+        <v>244296000</v>
+      </c>
+      <c r="G9" s="86">
+        <f t="shared" ref="G9:I9" si="9">+F9</f>
+        <v>244296000</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="9"/>
+        <v>244296000</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="9"/>
+        <v>244296000</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" ref="J9" si="10">+I9</f>
+        <v>244296000</v>
+      </c>
+      <c r="K9" s="36">
+        <f t="shared" si="8"/>
+        <v>244296000</v>
+      </c>
+      <c r="L9" s="36">
+        <f t="shared" si="8"/>
+        <v>244296000</v>
+      </c>
+      <c r="M9" s="10">
+        <f>+'POSTERIOR PROYECTO'!D70</f>
+        <v>159432000</v>
+      </c>
+      <c r="N9" s="10">
+        <f>+M9</f>
+        <v>159432000</v>
+      </c>
+      <c r="O9" s="10">
+        <f>+'POSTERIOR PROYECTO'!D70</f>
+        <v>159432000</v>
+      </c>
+      <c r="P9" s="10">
+        <f>+'POSTERIOR PROYECTO'!D70</f>
+        <v>159432000</v>
+      </c>
+      <c r="W9" s="143"/>
+    </row>
+    <row r="10" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="133"/>
+      <c r="C10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="86">
+        <f>+ACTUAL!C69</f>
+        <v>53998005.600000001</v>
+      </c>
+      <c r="E10" s="86">
+        <f t="shared" si="5"/>
+        <v>53998005.600000001</v>
+      </c>
+      <c r="F10" s="86">
+        <f t="shared" si="5"/>
+        <v>53998005.600000001</v>
+      </c>
+      <c r="G10" s="86">
+        <f t="shared" ref="G10:I10" si="11">+F10</f>
+        <v>53998005.600000001</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="11"/>
+        <v>53998005.600000001</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="11"/>
+        <v>53998005.600000001</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" ref="J10" si="12">+I10</f>
+        <v>53998005.600000001</v>
+      </c>
+      <c r="K10" s="36">
+        <f t="shared" si="8"/>
+        <v>53998005.600000001</v>
+      </c>
+      <c r="L10" s="36">
+        <f t="shared" si="8"/>
+        <v>53998005.600000001</v>
+      </c>
+      <c r="M10" s="10">
+        <f>+'POSTERIOR PROYECTO'!D71</f>
+        <v>67400009.599999994</v>
+      </c>
+      <c r="N10" s="10">
+        <f>+M10</f>
+        <v>67400009.599999994</v>
+      </c>
+      <c r="O10" s="10">
+        <f>+'POSTERIOR PROYECTO'!D71</f>
+        <v>67400009.599999994</v>
+      </c>
+      <c r="P10" s="10">
+        <f>+'POSTERIOR PROYECTO'!D71</f>
+        <v>67400009.599999994</v>
+      </c>
+      <c r="W10" s="143"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B11" s="133"/>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="86">
+        <f>SUM(D7:D10)</f>
+        <v>3288358813.3599997</v>
+      </c>
+      <c r="E11" s="86">
+        <f t="shared" ref="E11:G11" si="13">SUM(E7:E10)</f>
+        <v>3288358813.3599997</v>
+      </c>
+      <c r="F11" s="86">
+        <f t="shared" si="13"/>
+        <v>3288358813.3599997</v>
+      </c>
+      <c r="G11" s="86">
+        <f t="shared" si="13"/>
+        <v>3288358813.3599997</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" ref="H11" si="14">SUM(H7:H10)</f>
+        <v>3288358813.3599997</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" ref="I11" si="15">SUM(I7:I10)</f>
+        <v>3288358813.3599997</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" ref="J11" si="16">SUM(J7:J10)</f>
+        <v>1945054801.4799998</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" ref="K11" si="17">SUM(K7:K10)</f>
+        <v>1945054801.4799998</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" ref="L11" si="18">SUM(L7:L10)</f>
+        <v>1945054801.4799998</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" ref="M11" si="19">SUM(M7:M10)</f>
+        <v>2917890336.5839996</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" ref="N11" si="20">SUM(N7:N10)</f>
+        <v>3515903298.1359997</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" ref="O11" si="21">SUM(O7:O10)</f>
+        <v>3952006083.1447997</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="8"/>
+        <v>3952006083.1447997</v>
+      </c>
+      <c r="W11" s="143"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B12" s="133"/>
+      <c r="C12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="86">
+        <f>+ACTUAL!C72</f>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="E12" s="86">
+        <f t="shared" si="5"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="F12" s="86">
+        <f t="shared" si="5"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="G12" s="86">
+        <f t="shared" ref="G12:I12" si="22">+F12</f>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="22"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="22"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" ref="J12" si="23">+I12</f>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="K12" s="36">
+        <f t="shared" si="8"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="L12" s="36">
+        <f t="shared" si="8"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="M12" s="36">
+        <f t="shared" si="8"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="N12" s="36">
+        <f t="shared" si="8"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="8"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="8"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="W12" s="143"/>
+    </row>
+    <row r="13" spans="2:25" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B13" s="133"/>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="87">
+        <f>+D11+D12</f>
+        <v>4121628541.7582607</v>
+      </c>
+      <c r="E13" s="87">
+        <f t="shared" ref="E13:G13" si="24">+E11+E12</f>
+        <v>4121628541.7582607</v>
+      </c>
+      <c r="F13" s="87">
+        <f t="shared" si="24"/>
+        <v>4121628541.7582607</v>
+      </c>
+      <c r="G13" s="87">
+        <f t="shared" si="24"/>
+        <v>4121628541.7582607</v>
+      </c>
+      <c r="H13" s="36">
+        <f t="shared" ref="H13" si="25">+H11+H12</f>
+        <v>4121628541.7582607</v>
+      </c>
+      <c r="I13" s="36">
+        <f t="shared" ref="I13" si="26">+I11+I12</f>
+        <v>4121628541.7582607</v>
+      </c>
+      <c r="J13" s="36">
+        <f t="shared" ref="J13" si="27">+J11+J12</f>
+        <v>2778324529.8782606</v>
+      </c>
+      <c r="K13" s="36">
+        <f>+J13</f>
+        <v>2778324529.8782606</v>
+      </c>
+      <c r="L13" s="36">
+        <f>+K13</f>
+        <v>2778324529.8782606</v>
+      </c>
+      <c r="M13" s="36">
+        <f t="shared" ref="M13" si="28">+M11+M12</f>
+        <v>3751160064.9822607</v>
+      </c>
+      <c r="N13" s="36">
+        <f t="shared" ref="N13" si="29">+N11+N12</f>
+        <v>4349173026.5342607</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" ref="O13:P13" si="30">+O11+O12</f>
+        <v>4785275811.5430603</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="30"/>
+        <v>4785275811.5430603</v>
+      </c>
+      <c r="W13" s="143"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="10">
+        <f>+CRONOGRAMA!C17</f>
+        <v>395337600.59257299</v>
+      </c>
+      <c r="E14" s="86">
+        <f>+CRONOGRAMA!D17</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="86">
+        <f>+CRONOGRAMA!E17</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="86">
+        <f>+CRONOGRAMA!F17</f>
+        <v>395337600.59257299</v>
+      </c>
+      <c r="H14" s="10">
+        <f>+CRONOGRAMA!G17</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <f>+CRONOGRAMA!H17</f>
+        <v>395337600.59257299</v>
+      </c>
+      <c r="J14" s="10">
+        <f>+CRONOGRAMA!I17</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <f>+CRONOGRAMA!J17</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <f>+CRONOGRAMA!K17</f>
+        <v>593006400.88885939</v>
+      </c>
+      <c r="M14" s="10">
+        <f>+CRONOGRAMA!L17</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <f>+CRONOGRAMA!M17</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <f>+CRONOGRAMA!N17</f>
+        <v>197668800.29628649</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="W14" s="143"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="36">
+        <f>+D13+D14</f>
+        <v>4516966142.3508339</v>
+      </c>
+      <c r="E15" s="36">
+        <f>+E13+E14</f>
+        <v>4121628541.7582607</v>
+      </c>
+      <c r="F15" s="36">
+        <f>+F13+F14</f>
+        <v>4121628541.7582607</v>
+      </c>
+      <c r="G15" s="36">
+        <f>+G13+G14</f>
+        <v>4516966142.3508339</v>
+      </c>
+      <c r="H15" s="36">
+        <f t="shared" ref="H15:L15" si="31">+H13+H14</f>
+        <v>4121628541.7582607</v>
+      </c>
+      <c r="I15" s="36">
+        <f t="shared" si="31"/>
+        <v>4516966142.3508339</v>
+      </c>
+      <c r="J15" s="36">
+        <f>+J13+J14</f>
+        <v>2778324529.8782606</v>
+      </c>
+      <c r="K15" s="36">
+        <f t="shared" si="31"/>
+        <v>2778324529.8782606</v>
+      </c>
+      <c r="L15" s="36">
+        <f t="shared" si="31"/>
+        <v>3371330930.7671199</v>
+      </c>
+      <c r="M15" s="36">
+        <f t="shared" ref="M15" si="32">+M13+M14</f>
+        <v>3751160064.9822607</v>
+      </c>
+      <c r="N15" s="36">
+        <f t="shared" ref="N15" si="33">+N13+N14</f>
+        <v>4349173026.5342607</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" ref="O15" si="34">+O13+O14</f>
+        <v>4982944611.8393469</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" ref="P15" si="35">+P13+P14</f>
+        <v>4785275811.5430603</v>
+      </c>
+      <c r="W15" s="143"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="36">
+        <f>+D6-D15</f>
+        <v>882834417.64916611</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" ref="E16:P16" si="36">+E6-E15</f>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="F16" s="36">
+        <f t="shared" si="36"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="36"/>
+        <v>882834417.64916611</v>
+      </c>
+      <c r="H16" s="36">
+        <f t="shared" si="36"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="I16" s="36">
+        <f t="shared" si="36"/>
+        <v>882834417.64916611</v>
+      </c>
+      <c r="J16" s="36">
+        <f t="shared" si="36"/>
+        <v>-78424249.878260612</v>
+      </c>
+      <c r="K16" s="36">
+        <f t="shared" si="36"/>
+        <v>-78424249.878260612</v>
+      </c>
+      <c r="L16" s="36">
+        <f t="shared" si="36"/>
+        <v>-671430650.76711988</v>
+      </c>
+      <c r="M16" s="36">
+        <f t="shared" si="36"/>
+        <v>1108660439.0177393</v>
+      </c>
+      <c r="N16" s="36">
+        <f t="shared" si="36"/>
+        <v>1590607589.4657402</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="36"/>
+        <v>1757056348.1606531</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" si="36"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="Q16" s="5">
+        <f>P16</f>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" ref="R16:X16" si="37">Q16</f>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="37"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="37"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="37"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="37"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="W16" s="145">
+        <f t="shared" si="37"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" si="37"/>
+        <v>1954725148.4569397</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C17" s="137" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="5">
+        <f>D16</f>
+        <v>882834417.64916611</v>
+      </c>
+      <c r="E17" s="5">
+        <f>E16+D17</f>
+        <v>2161006435.8909054</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" ref="F17:V17" si="38">F16+E17</f>
+        <v>3439178454.1326447</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="38"/>
+        <v>4322012871.7818108</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="38"/>
+        <v>5600184890.02355</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="38"/>
+        <v>6483019307.6727161</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="38"/>
+        <v>6404595057.7944555</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="38"/>
+        <v>6326170807.9161949</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="38"/>
+        <v>5654740157.1490746</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="38"/>
+        <v>6763400596.1668139</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="38"/>
+        <v>8354008185.6325541</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="38"/>
+        <v>10111064533.793207</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="38"/>
+        <v>12065789682.250147</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="38"/>
+        <v>14020514830.707087</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="38"/>
+        <v>15975239979.164026</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" si="38"/>
+        <v>17929965127.620964</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="38"/>
+        <v>19884690276.077904</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="38"/>
+        <v>21839415424.534843</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="38"/>
+        <v>23794140572.991783</v>
+      </c>
+      <c r="W17" s="145">
+        <f>W16+V17</f>
+        <v>25748865721.448723</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" ref="X17" si="39">X16+W17</f>
+        <v>27703590869.905663</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="W18" s="143"/>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="W19" s="143"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="144"/>
+      <c r="X20" s="6"/>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="36">
+        <f>E16</f>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="E21" s="36">
+        <f>D21</f>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="F21" s="36">
+        <f t="shared" ref="F21:X21" si="40">E21</f>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="G21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="H21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="I21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="J21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="K21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="L21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="M21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="N21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="O21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="P21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="Q21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="R21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="S21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="T21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="U21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="V21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="W21" s="146">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="X21" s="36">
+        <f t="shared" si="40"/>
+        <v>1278172018.2417393</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="36">
+        <f>D21</f>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="E22" s="36">
+        <f>E21+D22</f>
+        <v>2556344036.4834785</v>
+      </c>
+      <c r="F22" s="36">
+        <f t="shared" ref="F22:X22" si="41">F21+E22</f>
+        <v>3834516054.7252178</v>
+      </c>
+      <c r="G22" s="36">
+        <f t="shared" si="41"/>
+        <v>5112688072.9669571</v>
+      </c>
+      <c r="H22" s="36">
+        <f t="shared" si="41"/>
+        <v>6390860091.2086964</v>
+      </c>
+      <c r="I22" s="36">
+        <f t="shared" si="41"/>
+        <v>7669032109.4504356</v>
+      </c>
+      <c r="J22" s="36">
+        <f t="shared" si="41"/>
+        <v>8947204127.6921749</v>
+      </c>
+      <c r="K22" s="36">
+        <f t="shared" si="41"/>
+        <v>10225376145.933914</v>
+      </c>
+      <c r="L22" s="36">
+        <f t="shared" si="41"/>
+        <v>11503548164.175653</v>
+      </c>
+      <c r="M22" s="36">
+        <f t="shared" si="41"/>
+        <v>12781720182.417393</v>
+      </c>
+      <c r="N22" s="36">
+        <f t="shared" si="41"/>
+        <v>14059892200.659132</v>
+      </c>
+      <c r="O22" s="36">
+        <f t="shared" si="41"/>
+        <v>15338064218.900871</v>
+      </c>
+      <c r="P22" s="36">
+        <f t="shared" si="41"/>
+        <v>16616236237.142611</v>
+      </c>
+      <c r="Q22" s="36">
+        <f t="shared" si="41"/>
+        <v>17894408255.38435</v>
+      </c>
+      <c r="R22" s="36">
+        <f t="shared" si="41"/>
+        <v>19172580273.626091</v>
+      </c>
+      <c r="S22" s="36">
+        <f t="shared" si="41"/>
+        <v>20450752291.867828</v>
+      </c>
+      <c r="T22" s="36">
+        <f t="shared" si="41"/>
+        <v>21728924310.109566</v>
+      </c>
+      <c r="U22" s="36">
+        <f t="shared" si="41"/>
+        <v>23007096328.351303</v>
+      </c>
+      <c r="V22" s="36">
+        <f t="shared" si="41"/>
+        <v>24285268346.59304</v>
+      </c>
+      <c r="W22" s="146">
+        <f t="shared" si="41"/>
+        <v>25563440364.834778</v>
+      </c>
+      <c r="X22" s="36">
+        <f t="shared" si="41"/>
+        <v>26841612383.076515</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="2">
+        <f>PROPUESTA!C50</f>
+        <v>1976688002.9628649</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D16:P16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/anexos/analisis-economico/analis-economico.xlsx
+++ b/anexos/analisis-economico/analis-economico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\DOCUMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Documents\u\APMG1\Tile-Tech\anexos\analisis-economico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2E3D26-AFEC-47F0-8374-6DD1693BFC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4758BC85-B871-4DBF-B206-F61189379500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="664" activeTab="4" xr2:uid="{F88F103A-AD35-45C9-9307-C4B5E54861C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="4" xr2:uid="{F88F103A-AD35-45C9-9307-C4B5E54861C8}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTUAL" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="178">
   <si>
     <t>PRODUCCION M2</t>
   </si>
@@ -562,6 +562,24 @@
   </si>
   <si>
     <t>Periodo de recuperación</t>
+  </si>
+  <si>
+    <t>Tasa interna de retorno</t>
+  </si>
+  <si>
+    <t>Valor presente neto</t>
+  </si>
+  <si>
+    <t>Con automatización</t>
+  </si>
+  <si>
+    <t>Tasa de descuento</t>
+  </si>
+  <si>
+    <t>Diferencia generada por el proyecto</t>
+  </si>
+  <si>
+    <t>Sumatoria</t>
   </si>
 </sst>
 </file>
@@ -654,7 +672,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,8 +727,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1170,6 +1194,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1180,7 +1215,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1329,94 +1364,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1425,58 +1372,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1484,9 +1392,6 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1502,9 +1407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1515,9 +1417,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1532,18 +1431,151 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1570,7 +1602,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1888,42 +1920,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAC403C-54EA-4DB7-A3C6-5ABA5B343DBD}">
   <dimension ref="B1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="131" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="101"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="58" t="s">
         <v>122</v>
       </c>
@@ -1931,7 +1962,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="58" t="s">
         <v>90</v>
       </c>
@@ -1939,7 +1970,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="87" t="s">
         <v>93</v>
       </c>
@@ -1948,7 +1979,7 @@
         <v>6921.3600000000006</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="58" t="s">
         <v>91</v>
       </c>
@@ -1956,7 +1987,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="58" t="s">
         <v>123</v>
       </c>
@@ -1968,7 +1999,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="58" t="s">
         <v>124</v>
       </c>
@@ -1977,7 +2008,7 @@
         <v>264.67280640000001</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="58" t="s">
         <v>125</v>
       </c>
@@ -1986,7 +2017,7 @@
         <v>4764110.5152000003</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="58" t="s">
         <v>126</v>
       </c>
@@ -1995,7 +2026,7 @@
         <v>190564.42060800001</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="87" t="s">
         <v>127</v>
       </c>
@@ -2004,7 +2035,7 @@
         <v>152451.53648640003</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="87" t="s">
         <v>128</v>
       </c>
@@ -2013,7 +2044,7 @@
         <v>38112.884121600007</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="58" t="s">
         <v>94</v>
       </c>
@@ -2022,7 +2053,7 @@
         <v>30800</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="58" t="s">
         <v>95</v>
       </c>
@@ -2031,7 +2062,7 @@
         <v>18480</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="61" t="s">
         <v>1</v>
       </c>
@@ -2040,25 +2071,25 @@
         <v>5399800560</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
-    </row>
-    <row r="18" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="98" t="s">
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="57"/>
+      <c r="C17" s="98"/>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-    </row>
-    <row r="19" spans="2:5" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+    </row>
+    <row r="19" spans="2:5" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="83"/>
       <c r="C19" s="83"/>
       <c r="D19" s="83"/>
       <c r="E19" s="83"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="95" t="s">
         <v>23</v>
       </c>
@@ -2072,7 +2103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>16</v>
       </c>
@@ -2087,7 +2118,7 @@
         <v>1317153552</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -2102,7 +2133,7 @@
         <v>253298760</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>18</v>
       </c>
@@ -2117,7 +2148,7 @@
         <v>187901625.59999999</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>19</v>
       </c>
@@ -2132,7 +2163,7 @@
         <v>283372230.96000004</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>20</v>
       </c>
@@ -2147,7 +2178,7 @@
         <v>106385479.19999999</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>21</v>
       </c>
@@ -2162,26 +2193,26 @@
         <v>83311200</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="110" t="s">
+    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
       <c r="E27" s="26">
         <f>SUM(E21:E26)</f>
         <v>2231422847.7599998</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="99" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+    </row>
+    <row r="29" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
         <v>26</v>
       </c>
@@ -2195,7 +2226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>96</v>
       </c>
@@ -2210,7 +2241,7 @@
         <v>313145280</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>97</v>
       </c>
@@ -2225,7 +2256,7 @@
         <v>39942000</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>25</v>
       </c>
@@ -2240,7 +2271,7 @@
         <v>239652000</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
@@ -2256,7 +2287,7 @@
         <v>592739280</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="23" t="s">
         <v>130</v>
       </c>
@@ -2270,7 +2301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>98</v>
       </c>
@@ -2285,7 +2316,7 @@
         <v>30420000</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>96</v>
       </c>
@@ -2300,7 +2331,7 @@
         <v>81120000</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>99</v>
       </c>
@@ -2315,7 +2346,7 @@
         <v>20280000</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>97</v>
       </c>
@@ -2330,7 +2361,7 @@
         <v>1267500</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>100</v>
       </c>
@@ -2345,7 +2376,7 @@
         <v>18252000</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>25</v>
       </c>
@@ -2360,7 +2391,7 @@
         <v>1436500</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
         <v>101</v>
       </c>
@@ -2374,7 +2405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>102</v>
       </c>
@@ -2388,7 +2419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>103</v>
       </c>
@@ -2403,7 +2434,7 @@
         <v>10647000</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="17" t="s">
         <v>22</v>
       </c>
@@ -2419,7 +2450,7 @@
         <v>163423000</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="17" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +2464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
         <v>98</v>
       </c>
@@ -2448,45 +2479,45 @@
         <v>2479680</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="99" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="156" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
       <c r="E47" s="28">
         <f>+E46+E44+E33</f>
         <v>758641960</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="88"/>
       <c r="C48" s="88"/>
       <c r="D48" s="88"/>
       <c r="E48" s="25"/>
     </row>
-    <row r="49" spans="2:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="98" t="s">
+    <row r="50" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-    </row>
-    <row r="51" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="99" t="s">
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+    </row>
+    <row r="51" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-    </row>
-    <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="156"/>
+    </row>
+    <row r="52" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B52" s="89" t="s">
         <v>35</v>
       </c>
@@ -2506,8 +2537,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="105" t="s">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="147" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2529,8 +2560,8 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="106"/>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="148"/>
       <c r="C54" s="6" t="s">
         <v>117</v>
       </c>
@@ -2550,8 +2581,8 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="106"/>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="148"/>
       <c r="C55" s="6" t="s">
         <v>118</v>
       </c>
@@ -2571,8 +2602,8 @@
         <v>21216000</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="106"/>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="148"/>
       <c r="C56" s="6" t="s">
         <v>119</v>
       </c>
@@ -2592,8 +2623,8 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="106"/>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="148"/>
       <c r="C57" s="6" t="s">
         <v>120</v>
       </c>
@@ -2613,8 +2644,8 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="106"/>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="148"/>
       <c r="C58" s="6" t="s">
         <v>121</v>
       </c>
@@ -2634,8 +2665,8 @@
         <v>42432000</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="106"/>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="148"/>
       <c r="C59" s="6" t="s">
         <v>102</v>
       </c>
@@ -2655,8 +2686,8 @@
         <v>63648000</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="107"/>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="149"/>
       <c r="C60" s="6" t="s">
         <v>22</v>
       </c>
@@ -2674,11 +2705,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="100" t="s">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="101"/>
+      <c r="C61" s="158"/>
       <c r="D61" s="6">
         <v>2</v>
       </c>
@@ -2694,12 +2725,12 @@
         <v>63648000</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="102" t="s">
+    <row r="62" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="103"/>
-      <c r="D62" s="104"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="146"/>
       <c r="E62" s="36">
         <v>1</v>
       </c>
@@ -2712,20 +2743,20 @@
         <v>10920000</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="108" t="s">
+    <row r="63" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="C63" s="151"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="151"/>
+      <c r="F63" s="151"/>
       <c r="G63" s="38">
         <f>SUM(G53:G62)</f>
         <v>244296000</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2733,35 +2764,35 @@
       <c r="F64" s="7"/>
       <c r="G64" s="25"/>
     </row>
-    <row r="65" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B65" s="135" t="s">
+    <row r="65" spans="2:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="B65" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="C65" s="135"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
       <c r="G65" s="25"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="181"/>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="133"/>
       <c r="C66" s="88"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="25"/>
     </row>
-    <row r="67" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="134" t="s">
+    <row r="67" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="134"/>
+      <c r="C67" s="143"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="25"/>
     </row>
-    <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="93" t="s">
         <v>42</v>
       </c>
@@ -2773,12 +2804,12 @@
       <c r="F68" s="7"/>
       <c r="G68" s="25"/>
     </row>
-    <row r="69" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="170" t="str">
+    <row r="69" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="123" t="str">
         <f>+B16</f>
         <v>INGRESOS POR VENTAS</v>
       </c>
-      <c r="C69" s="171">
+      <c r="C69" s="124">
         <f>+C16</f>
         <v>5399800560</v>
       </c>
@@ -2787,17 +2818,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="25"/>
     </row>
-    <row r="70" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="136" t="s">
+    <row r="70" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="136"/>
+      <c r="C70" s="152"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="25"/>
     </row>
-    <row r="71" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="93" t="s">
         <v>42</v>
       </c>
@@ -2805,7 +2836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="34" t="s">
         <v>7</v>
       </c>
@@ -2814,7 +2845,7 @@
         <v>2231422847.7599998</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>133</v>
       </c>
@@ -2823,7 +2854,7 @@
         <v>758641960</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="11" t="s">
         <v>134</v>
       </c>
@@ -2832,8 +2863,8 @@
         <v>244296000</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B75" s="156" t="s">
+    <row r="75" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B75" s="111" t="s">
         <v>135</v>
       </c>
       <c r="C75" s="31">
@@ -2841,7 +2872,7 @@
         <v>53998005.600000001</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>132</v>
       </c>
@@ -2850,7 +2881,7 @@
         <v>44720100.233044446</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="32" t="s">
         <v>11</v>
       </c>
@@ -2859,7 +2890,7 @@
         <v>3333078913.5930443</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="32" t="s">
         <v>12</v>
       </c>
@@ -2868,39 +2899,46 @@
         <v>833269728.39826107</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B79" s="172" t="s">
+    <row r="79" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B79" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="173">
+      <c r="C79" s="126">
         <f>+C78+C77</f>
         <v>4166348641.9913054</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B81" s="157" t="s">
+    <row r="81" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B81" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="174">
+      <c r="C81" s="127">
         <f>+C16-C79</f>
         <v>1233451918.0086946</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B82" s="157" t="s">
+    <row r="82" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B82" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="C82" s="175">
+      <c r="C82" s="128">
         <f>+C81/C16</f>
         <v>0.22842545836705766</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B51:G51"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B65:F65"/>
@@ -2908,13 +2946,6 @@
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B53:B60"/>
     <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B51:G51"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2936,90 +2967,90 @@
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="116" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="116" t="s">
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="116" t="s">
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="116" t="s">
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="113" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="165" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-    </row>
-    <row r="12" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="138" t="s">
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+    </row>
+    <row r="12" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="116" t="s">
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3028,26 +3059,26 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="125" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="162" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="125"/>
+      <c r="C16" s="162"/>
       <c r="D16" s="9">
         <v>300000000</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="144"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>54</v>
       </c>
@@ -3055,7 +3086,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>53</v>
       </c>
@@ -3078,7 +3109,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>58</v>
       </c>
@@ -3104,7 +3135,7 @@
         <v>48730500</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>59</v>
       </c>
@@ -3130,7 +3161,7 @@
         <v>394457170.24350005</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="44" t="s">
         <v>60</v>
       </c>
@@ -3156,7 +3187,7 @@
         <v>399590100</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="44" t="s">
         <v>61</v>
       </c>
@@ -3182,7 +3213,7 @@
         <v>61887735</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="44" t="s">
         <v>73</v>
       </c>
@@ -3208,7 +3239,7 @@
         <v>73095750</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="44" t="s">
         <v>74</v>
       </c>
@@ -3228,7 +3259,7 @@
         <v>23800000</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="15" t="s">
         <v>62</v>
       </c>
@@ -3249,7 +3280,7 @@
         <v>4641000</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
         <v>22</v>
       </c>
@@ -3271,13 +3302,13 @@
         <v>44720100.233044446</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="139" t="s">
+    <row r="30" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="166" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="139"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="166"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>63</v>
       </c>
@@ -3286,7 +3317,7 @@
         <v>7309575</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>64</v>
       </c>
@@ -3295,7 +3326,7 @@
         <v>59168575.536525004</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>65</v>
       </c>
@@ -3304,7 +3335,7 @@
         <v>59938515</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="15" t="s">
         <v>143</v>
       </c>
@@ -3317,7 +3348,7 @@
         <v>1225450523.280025</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
         <v>22</v>
       </c>
@@ -3326,15 +3357,15 @@
         <v>219248268.03652501</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="140" t="s">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="141">
+      <c r="C36" s="102">
         <v>0.19</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="17" t="s">
         <v>72</v>
       </c>
@@ -3343,12 +3374,12 @@
         <v>260905438.96346474</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="145" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
         <v>66</v>
@@ -3362,12 +3393,12 @@
       <c r="F40" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="126" t="s">
+      <c r="G40" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="H40" s="126"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="163"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="15" t="s">
         <v>70</v>
       </c>
@@ -3384,13 +3415,13 @@
       <c r="F41" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="137">
+      <c r="G41" s="164">
         <f>+E41*12</f>
         <v>46800000</v>
       </c>
-      <c r="H41" s="137"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="164"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="15" t="s">
         <v>144</v>
       </c>
@@ -3402,13 +3433,13 @@
       <c r="F42" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G42" s="137">
+      <c r="G42" s="164">
         <f t="shared" ref="G42:G44" si="5">+E42*12</f>
         <v>48000000</v>
       </c>
-      <c r="H42" s="137"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="164"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="15" t="s">
         <v>145</v>
       </c>
@@ -3420,13 +3451,13 @@
       <c r="F43" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="137">
+      <c r="G43" s="164">
         <f t="shared" si="5"/>
         <v>24000000</v>
       </c>
-      <c r="H43" s="137"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H43" s="164"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
         <v>146</v>
       </c>
@@ -3438,13 +3469,13 @@
       <c r="F44" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="137">
+      <c r="G44" s="164">
         <f t="shared" si="5"/>
         <v>12000000</v>
       </c>
-      <c r="H44" s="137"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="164"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
         <v>22</v>
       </c>
@@ -3452,19 +3483,19 @@
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
       <c r="F45" s="56"/>
-      <c r="G45" s="155">
+      <c r="G45" s="159">
         <f>SUM(G41:G44)</f>
         <v>130800000</v>
       </c>
-      <c r="H45" s="155"/>
-    </row>
-    <row r="47" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="146" t="s">
+      <c r="H45" s="159"/>
+    </row>
+    <row r="47" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="146"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="160"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>147</v>
       </c>
@@ -3473,7 +3504,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
         <v>148</v>
       </c>
@@ -3482,7 +3513,7 @@
         <v>1006202255.2435</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>149</v>
       </c>
@@ -3491,7 +3522,7 @@
         <v>260905438.96346474</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>150</v>
       </c>
@@ -3500,7 +3531,7 @@
         <v>130800000</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
         <v>22</v>
       </c>
@@ -3509,15 +3540,15 @@
         <v>1267107694.2069647</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="147" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="148">
+      <c r="C53" s="106">
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
         <v>22</v>
       </c>
@@ -3526,7 +3557,7 @@
         <v>1647240002.4690542</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
         <v>111</v>
       </c>
@@ -3535,7 +3566,7 @@
         <v>329759997.53094578</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="17" t="s">
         <v>75</v>
       </c>
@@ -3546,6 +3577,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B14:H14"/>
@@ -3556,12 +3593,6 @@
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3576,29 +3607,29 @@
       <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="14" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="14" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="169">
+      <c r="C1" s="167">
         <f>+PROPUESTA!C56</f>
         <v>1977000000</v>
       </c>
-      <c r="D1" s="169"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="167"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>76</v>
       </c>
@@ -3639,7 +3670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>152</v>
       </c>
@@ -3656,7 +3687,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>153</v>
       </c>
@@ -3673,7 +3704,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>154</v>
       </c>
@@ -3690,7 +3721,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>155</v>
       </c>
@@ -3707,7 +3738,7 @@
       <c r="M9" s="81"/>
       <c r="N9" s="81"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>156</v>
       </c>
@@ -3724,7 +3755,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>157</v>
       </c>
@@ -3743,7 +3774,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>159</v>
       </c>
@@ -3762,7 +3793,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
         <v>160</v>
       </c>
@@ -3781,7 +3812,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>161</v>
       </c>
@@ -3800,7 +3831,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>158</v>
       </c>
@@ -3819,7 +3850,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>43</v>
       </c>
@@ -3851,56 +3882,56 @@
         <v>197700000</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="155">
+      <c r="C18" s="159">
         <f>+C16</f>
         <v>395400000</v>
       </c>
-      <c r="D18" s="155"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="159"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="155">
+      <c r="C19" s="159">
         <f>+F16</f>
         <v>395400000</v>
       </c>
-      <c r="D19" s="155"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="159"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="155">
+      <c r="C20" s="159">
         <f>+H16</f>
         <v>395400000</v>
       </c>
-      <c r="D20" s="155"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="159"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="155">
+      <c r="C21" s="159">
         <f>+K16</f>
         <v>593100000</v>
       </c>
-      <c r="D21" s="155"/>
+      <c r="D21" s="159"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="155">
+      <c r="C22" s="159">
         <f>+N16</f>
         <v>197700000</v>
       </c>
-      <c r="D22" s="155"/>
+      <c r="D22" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3924,38 +3955,38 @@
       <selection activeCell="B64" sqref="B64:F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="131" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-    </row>
-    <row r="2" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="154" t="s">
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+    </row>
+    <row r="2" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-    </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+    </row>
+    <row r="5" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="15" t="s">
         <v>4</v>
@@ -3967,7 +3998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="58" t="s">
         <v>122</v>
       </c>
@@ -3985,7 +4016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="58" t="s">
         <v>90</v>
       </c>
@@ -4000,7 +4031,7 @@
         <v>-0.3970588235294118</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="58" t="s">
         <v>93</v>
       </c>
@@ -4017,7 +4048,7 @@
         <v>0.24819255175283472</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="58" t="s">
         <v>91</v>
       </c>
@@ -4033,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="58" t="s">
         <v>123</v>
       </c>
@@ -4050,7 +4081,7 @@
         <v>0.24819255175283472</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="58" t="s">
         <v>124</v>
       </c>
@@ -4067,7 +4098,7 @@
         <v>0.24819255175283472</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="58" t="s">
         <v>125</v>
       </c>
@@ -4084,7 +4115,7 @@
         <v>0.24819255175283472</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="79" t="s">
         <v>126</v>
       </c>
@@ -4105,7 +4136,7 @@
         <v>47296.669823999982</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="58" t="s">
         <v>127</v>
       </c>
@@ -4122,7 +4153,7 @@
         <v>0.2481925517528345</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="58" t="s">
         <v>128</v>
       </c>
@@ -4139,7 +4170,7 @@
         <v>0.2481925517528345</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="58" t="s">
         <v>94</v>
       </c>
@@ -4156,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="58" t="s">
         <v>95</v>
       </c>
@@ -4173,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="61" t="s">
         <v>1</v>
       </c>
@@ -4190,19 +4221,19 @@
         <v>0.2481944259067228</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="57"/>
       <c r="C19" s="52"/>
     </row>
-    <row r="20" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="153" t="s">
+    <row r="20" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="95" t="s">
         <v>23</v>
       </c>
@@ -4216,7 +4247,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>16</v>
       </c>
@@ -4232,7 +4263,7 @@
         <v>1620098868.96</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>17</v>
       </c>
@@ -4248,7 +4279,7 @@
         <v>311557474.80000001</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>18</v>
       </c>
@@ -4264,7 +4295,7 @@
         <v>231118999.48799998</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>19</v>
       </c>
@@ -4280,7 +4311,7 @@
         <v>348547844.08080006</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>20</v>
       </c>
@@ -4296,7 +4327,7 @@
         <v>130854139.41599998</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
@@ -4312,26 +4343,26 @@
         <v>102472776</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="118" t="s">
+    <row r="28" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="173"/>
       <c r="E28" s="26">
         <f>SUM(E22:E27)</f>
         <v>2744650102.7448001</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="121" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-    </row>
-    <row r="30" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+    </row>
+    <row r="30" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>26</v>
       </c>
@@ -4345,7 +4376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>96</v>
       </c>
@@ -4361,7 +4392,7 @@
         <v>385168694.40000004</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>97</v>
       </c>
@@ -4377,7 +4408,7 @@
         <v>49128660</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>25</v>
       </c>
@@ -4393,7 +4424,7 @@
         <v>294771960</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
         <v>22</v>
       </c>
@@ -4409,7 +4440,7 @@
         <v>729069314.39999998</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="23" t="s">
         <v>130</v>
       </c>
@@ -4423,7 +4454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>98</v>
       </c>
@@ -4439,7 +4470,7 @@
         <v>37416600</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>96</v>
       </c>
@@ -4455,7 +4486,7 @@
         <v>99777600</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>99</v>
       </c>
@@ -4471,7 +4502,7 @@
         <v>24944400</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>97</v>
       </c>
@@ -4487,7 +4518,7 @@
         <v>1559025</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>100</v>
       </c>
@@ -4503,7 +4534,7 @@
         <v>22449960</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
         <v>25</v>
       </c>
@@ -4519,7 +4550,7 @@
         <v>1766895</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>101</v>
       </c>
@@ -4534,7 +4565,7 @@
         <v>22449960</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>102</v>
       </c>
@@ -4549,7 +4580,7 @@
         <v>24944400</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>103</v>
       </c>
@@ -4565,7 +4596,7 @@
         <v>13095810</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="17" t="s">
         <v>22</v>
       </c>
@@ -4581,7 +4612,7 @@
         <v>248404650</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
         <v>33</v>
       </c>
@@ -4595,7 +4626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="17" t="s">
         <v>98</v>
       </c>
@@ -4611,52 +4642,52 @@
         <v>3050006.4</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="122" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="176"/>
       <c r="E48" s="25">
         <f>+E47+E45+E34</f>
         <v>980523970.79999995</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="126" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126"/>
-    </row>
-    <row r="51" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="165" t="s">
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="163"/>
+      <c r="F50" s="163"/>
+      <c r="G50" s="163"/>
+    </row>
+    <row r="51" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="166" t="s">
+      <c r="C51" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="167" t="s">
+      <c r="D51" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="167" t="s">
+      <c r="E51" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="167" t="s">
+      <c r="F51" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="168" t="s">
+      <c r="G51" s="122" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="105" t="s">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="147" t="s">
         <v>113</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -4677,8 +4708,8 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="106"/>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="148"/>
       <c r="C53" s="6" t="s">
         <v>117</v>
       </c>
@@ -4697,8 +4728,8 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="106"/>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="148"/>
       <c r="C54" s="6" t="s">
         <v>118</v>
       </c>
@@ -4717,8 +4748,8 @@
         <v>21216000</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="106"/>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="148"/>
       <c r="C55" s="6" t="s">
         <v>119</v>
       </c>
@@ -4737,8 +4768,8 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="106"/>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="148"/>
       <c r="C56" s="6" t="s">
         <v>120</v>
       </c>
@@ -4757,8 +4788,8 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="106"/>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="148"/>
       <c r="C57" s="6" t="s">
         <v>121</v>
       </c>
@@ -4777,8 +4808,8 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="106"/>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="148"/>
       <c r="C58" s="6" t="s">
         <v>102</v>
       </c>
@@ -4797,8 +4828,8 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="107"/>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="149"/>
       <c r="C59" s="6" t="s">
         <v>22</v>
       </c>
@@ -4816,11 +4847,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="100" t="s">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="101"/>
+      <c r="C60" s="158"/>
       <c r="D60" s="6">
         <v>2</v>
       </c>
@@ -4836,12 +4867,12 @@
         <v>63648000</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="102" t="s">
+    <row r="61" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="103"/>
-      <c r="D61" s="104"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="146"/>
       <c r="E61" s="36">
         <v>1</v>
       </c>
@@ -4854,20 +4885,20 @@
         <v>10920000</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="108" t="s">
+    <row r="62" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="109"/>
+      <c r="C62" s="151"/>
+      <c r="D62" s="151"/>
+      <c r="E62" s="151"/>
+      <c r="F62" s="151"/>
       <c r="G62" s="38">
         <f>SUM(G52:G61)</f>
         <v>159432000</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -4875,52 +4906,52 @@
       <c r="F63" s="7"/>
       <c r="G63" s="25"/>
     </row>
-    <row r="64" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B64" s="135" t="s">
+    <row r="64" spans="2:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="B64" s="142" t="s">
         <v>165</v>
       </c>
-      <c r="C64" s="135"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="142"/>
+      <c r="F64" s="142"/>
       <c r="G64" s="25"/>
     </row>
-    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="176" t="s">
+    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="177" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="176"/>
+      <c r="C65" s="177"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="25"/>
     </row>
-    <row r="66" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="177" t="s">
+    <row r="66" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B66" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="178" t="s">
+      <c r="C66" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="179" t="s">
+      <c r="D66" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="E66" s="180" t="s">
+      <c r="E66" s="132" t="s">
         <v>136</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="25"/>
     </row>
-    <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="170" t="str">
+    <row r="67" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="123" t="str">
         <f>+B18</f>
         <v>INGRESOS POR VENTAS</v>
       </c>
-      <c r="C67" s="171">
+      <c r="C67" s="124">
         <f>+C18</f>
         <v>5399800560</v>
       </c>
-      <c r="D67" s="171">
+      <c r="D67" s="124">
         <f>+D18</f>
         <v>6740000960</v>
       </c>
@@ -4931,25 +4962,25 @@
       <c r="F67" s="7"/>
       <c r="G67" s="25"/>
     </row>
-    <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="129"/>
-      <c r="C68" s="130"/>
+    <row r="68" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="99"/>
+      <c r="C68" s="100"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="25"/>
     </row>
-    <row r="69" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="117" t="s">
+    <row r="69" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="117"/>
+      <c r="C69" s="169"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="25"/>
     </row>
-    <row r="70" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="75" t="s">
         <v>42</v>
       </c>
@@ -4963,7 +4994,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="34" t="s">
         <v>7</v>
       </c>
@@ -4980,7 +5011,7 @@
         <v>0.2300000000000002</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
         <v>133</v>
       </c>
@@ -4997,7 +5028,7 @@
         <v>0.29247263201734852</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>134</v>
       </c>
@@ -5014,8 +5045,8 @@
         <v>-0.34738186462324394</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="156" t="s">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="111" t="s">
         <v>135</v>
       </c>
       <c r="C74" s="29">
@@ -5031,7 +5062,7 @@
         <v>0.24819442590672258</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
         <v>132</v>
       </c>
@@ -5048,7 +5079,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="32" t="s">
         <v>11</v>
       </c>
@@ -5065,7 +5096,7 @@
         <v>0.2007865099096906</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="32" t="s">
         <v>12</v>
       </c>
@@ -5082,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B78" s="67" t="s">
         <v>44</v>
       </c>
@@ -5099,13 +5130,13 @@
         <v>0.16062920792775248</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="11"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="68"/>
     </row>
-    <row r="80" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B80" s="69" t="s">
         <v>45</v>
       </c>
@@ -5122,7 +5153,7 @@
         <v>0.5439718467253134</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="70" t="s">
         <v>46</v>
       </c>
@@ -5141,11 +5172,10 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:F64"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B28:D28"/>
@@ -5153,8 +5183,9 @@
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B52:B59"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:F64"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5167,66 +5198,67 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADFFA1A-762C-454E-8EB2-63C69813CEF7}">
-  <dimension ref="B1:Z26"/>
+  <dimension ref="B1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
-    <col min="13" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="13" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="20.42578125" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" customWidth="1"/>
+    <col min="23" max="23" width="20.44140625" customWidth="1"/>
+    <col min="24" max="24" width="21.44140625" customWidth="1"/>
+    <col min="25" max="28" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D1" s="142" t="s">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="D1" s="178" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="J1" s="142" t="s">
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="J1" s="178" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="P1" s="142" t="s">
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="P1" s="178" t="s">
         <v>163</v>
       </c>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="W1" s="142" t="s">
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="W1" s="178" t="s">
         <v>163</v>
       </c>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-    </row>
-    <row r="2" spans="2:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+    </row>
+    <row r="2" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5236,37 +5268,37 @@
       <c r="J2" s="85">
         <v>0.5</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="W2" s="164"/>
-    </row>
-    <row r="3" spans="2:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="W2" s="118"/>
+    </row>
+    <row r="3" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="J3" s="183" t="s">
+      <c r="J3" s="179" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="183"/>
-      <c r="M3" s="182" t="s">
+      <c r="K3" s="179"/>
+      <c r="M3" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="N3" s="182" t="s">
+      <c r="N3" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="W3" s="184" t="s">
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="W3" s="135" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="126" t="s">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B4" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="126"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="6">
         <v>0</v>
       </c>
@@ -5330,13 +5362,24 @@
       <c r="X4" s="6">
         <v>20</v>
       </c>
-      <c r="Y4" s="6"/>
-    </row>
-    <row r="5" spans="2:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="Y4" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="136">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="136">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="136">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="115"/>
+      <c r="C5" s="183"/>
       <c r="D5" s="43">
         <v>1</v>
       </c>
@@ -5400,13 +5443,24 @@
       <c r="X5" s="43">
         <v>1.25</v>
       </c>
-      <c r="Y5" s="132"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="125" t="s">
+      <c r="Y5" s="43">
+        <v>1.25</v>
+      </c>
+      <c r="Z5" s="43">
+        <v>1.25</v>
+      </c>
+      <c r="AA5" s="43">
+        <v>1.25</v>
+      </c>
+      <c r="AB5" s="43">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B6" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="125"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="27">
         <f>+INT(ACTUAL!$C$11)*D5</f>
         <v>190564</v>
@@ -5491,101 +5545,131 @@
         <f>+INT(ACTUAL!$C$11)*X5</f>
         <v>238205</v>
       </c>
-      <c r="Y6" s="14"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="161" t="s">
+      <c r="Y6" s="27">
+        <f>+INT(ACTUAL!$C$11)*Y5</f>
+        <v>238205</v>
+      </c>
+      <c r="Z6" s="27">
+        <f>+INT(ACTUAL!$C$11)*Z5</f>
+        <v>238205</v>
+      </c>
+      <c r="AA6" s="27">
+        <f>+INT(ACTUAL!$C$11)*AA5</f>
+        <v>238205</v>
+      </c>
+      <c r="AB6" s="27">
+        <f>+INT(ACTUAL!$C$11)*AB5</f>
+        <v>238205</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B7" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="159">
+      <c r="C7" s="181"/>
+      <c r="D7" s="114">
         <f>+ACTUAL!C16</f>
         <v>5399800560</v>
       </c>
-      <c r="E7" s="159">
+      <c r="E7" s="114">
         <f>+D7</f>
         <v>5399800560</v>
       </c>
-      <c r="F7" s="159">
+      <c r="F7" s="114">
         <f t="shared" ref="F7" si="0">+E7</f>
         <v>5399800560</v>
       </c>
-      <c r="G7" s="159">
+      <c r="G7" s="114">
         <f t="shared" ref="G7:I7" si="1">+F7</f>
         <v>5399800560</v>
       </c>
-      <c r="H7" s="159">
+      <c r="H7" s="114">
         <f t="shared" si="1"/>
         <v>5399800560</v>
       </c>
-      <c r="I7" s="159">
+      <c r="I7" s="114">
         <f t="shared" si="1"/>
         <v>5399800560</v>
       </c>
-      <c r="J7" s="159">
+      <c r="J7" s="114">
         <f>+I7/2</f>
         <v>2699900280</v>
       </c>
-      <c r="K7" s="159">
+      <c r="K7" s="114">
         <f t="shared" ref="K7:L8" si="2">+J7</f>
         <v>2699900280</v>
       </c>
-      <c r="L7" s="159">
+      <c r="L7" s="114">
         <f t="shared" si="2"/>
         <v>2699900280</v>
       </c>
-      <c r="M7" s="159">
+      <c r="M7" s="114">
         <f>+I7*0.9</f>
         <v>4859820504</v>
       </c>
-      <c r="N7" s="159">
+      <c r="N7" s="114">
         <f>+I7*1.1</f>
         <v>5939780616.000001</v>
       </c>
-      <c r="O7" s="159">
+      <c r="O7" s="114">
         <f>+'POSTERIOR PROYECTO'!D18</f>
         <v>6740000960</v>
       </c>
-      <c r="P7" s="159">
-        <f t="shared" ref="P7:X14" si="3">$O7</f>
+      <c r="P7" s="114">
+        <f t="shared" ref="P7:AB14" si="3">$O7</f>
         <v>6740000960</v>
       </c>
-      <c r="Q7" s="159">
+      <c r="Q7" s="114">
         <f t="shared" si="3"/>
         <v>6740000960</v>
       </c>
-      <c r="R7" s="159">
+      <c r="R7" s="114">
         <f t="shared" si="3"/>
         <v>6740000960</v>
       </c>
-      <c r="S7" s="159">
+      <c r="S7" s="114">
         <f t="shared" si="3"/>
         <v>6740000960</v>
       </c>
-      <c r="T7" s="159">
+      <c r="T7" s="114">
         <f t="shared" si="3"/>
         <v>6740000960</v>
       </c>
-      <c r="U7" s="159">
+      <c r="U7" s="114">
         <f t="shared" si="3"/>
         <v>6740000960</v>
       </c>
-      <c r="V7" s="159">
+      <c r="V7" s="114">
         <f t="shared" si="3"/>
         <v>6740000960</v>
       </c>
-      <c r="W7" s="159">
+      <c r="W7" s="114">
         <f t="shared" si="3"/>
         <v>6740000960</v>
       </c>
-      <c r="X7" s="159">
+      <c r="X7" s="114">
         <f t="shared" si="3"/>
         <v>6740000960</v>
       </c>
-      <c r="Y7" s="14"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="124" t="s">
+      <c r="Y7" s="114">
+        <f t="shared" si="3"/>
+        <v>6740000960</v>
+      </c>
+      <c r="Z7" s="114">
+        <f t="shared" si="3"/>
+        <v>6740000960</v>
+      </c>
+      <c r="AA7" s="114">
+        <f t="shared" si="3"/>
+        <v>6740000960</v>
+      </c>
+      <c r="AB7" s="114">
+        <f t="shared" si="3"/>
+        <v>6740000960</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B8" s="180" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -5675,10 +5759,25 @@
         <f t="shared" si="3"/>
         <v>2744650102.7448001</v>
       </c>
-      <c r="Y8" s="14"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="124"/>
+      <c r="Y8" s="9">
+        <f t="shared" si="3"/>
+        <v>2744650102.7448001</v>
+      </c>
+      <c r="Z8" s="9">
+        <f t="shared" si="3"/>
+        <v>2744650102.7448001</v>
+      </c>
+      <c r="AA8" s="9">
+        <f t="shared" si="3"/>
+        <v>2744650102.7448001</v>
+      </c>
+      <c r="AB8" s="9">
+        <f t="shared" si="3"/>
+        <v>2744650102.7448001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B9" s="180"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -5766,10 +5865,25 @@
         <f t="shared" si="3"/>
         <v>980523970.79999995</v>
       </c>
-      <c r="Y9" s="14"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="124"/>
+      <c r="Y9" s="9">
+        <f t="shared" si="3"/>
+        <v>980523970.79999995</v>
+      </c>
+      <c r="Z9" s="9">
+        <f t="shared" si="3"/>
+        <v>980523970.79999995</v>
+      </c>
+      <c r="AA9" s="9">
+        <f t="shared" si="3"/>
+        <v>980523970.79999995</v>
+      </c>
+      <c r="AB9" s="9">
+        <f t="shared" si="3"/>
+        <v>980523970.79999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B10" s="180"/>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
@@ -5857,10 +5971,25 @@
         <f t="shared" si="3"/>
         <v>159432000</v>
       </c>
-      <c r="Y10" s="14"/>
-    </row>
-    <row r="11" spans="2:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="124"/>
+      <c r="Y10" s="9">
+        <f t="shared" si="3"/>
+        <v>159432000</v>
+      </c>
+      <c r="Z10" s="9">
+        <f t="shared" si="3"/>
+        <v>159432000</v>
+      </c>
+      <c r="AA10" s="9">
+        <f t="shared" si="3"/>
+        <v>159432000</v>
+      </c>
+      <c r="AB10" s="9">
+        <f t="shared" si="3"/>
+        <v>159432000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="180"/>
       <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
@@ -5948,10 +6077,25 @@
         <f t="shared" si="3"/>
         <v>67400009.599999994</v>
       </c>
-      <c r="Y11" s="14"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="124"/>
+      <c r="Y11" s="9">
+        <f t="shared" si="3"/>
+        <v>67400009.599999994</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" si="3"/>
+        <v>67400009.599999994</v>
+      </c>
+      <c r="AA11" s="9">
+        <f t="shared" si="3"/>
+        <v>67400009.599999994</v>
+      </c>
+      <c r="AB11" s="9">
+        <f t="shared" si="3"/>
+        <v>67400009.599999994</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B12" s="180"/>
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
@@ -6039,10 +6183,25 @@
         <f t="shared" si="3"/>
         <v>3952006083.1447997</v>
       </c>
-      <c r="Y12" s="14"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="124"/>
+      <c r="Y12" s="9">
+        <f t="shared" si="3"/>
+        <v>3952006083.1447997</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" si="3"/>
+        <v>3952006083.1447997</v>
+      </c>
+      <c r="AA12" s="9">
+        <f t="shared" si="3"/>
+        <v>3952006083.1447997</v>
+      </c>
+      <c r="AB12" s="9">
+        <f t="shared" si="3"/>
+        <v>3952006083.1447997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B13" s="180"/>
       <c r="C13" s="6" t="s">
         <v>85</v>
       </c>
@@ -6130,100 +6289,130 @@
         <f t="shared" si="3"/>
         <v>833269728.39826107</v>
       </c>
-      <c r="Y13" s="14"/>
-    </row>
-    <row r="14" spans="2:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="124"/>
-      <c r="C14" s="162" t="s">
+      <c r="Y13" s="9">
+        <f t="shared" si="3"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="3"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="AA13" s="9">
+        <f t="shared" si="3"/>
+        <v>833269728.39826107</v>
+      </c>
+      <c r="AB13" s="9">
+        <f t="shared" si="3"/>
+        <v>833269728.39826107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B14" s="180"/>
+      <c r="C14" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="163">
+      <c r="D14" s="117">
         <f>+D12+D13</f>
         <v>4121628541.7582607</v>
       </c>
-      <c r="E14" s="163">
+      <c r="E14" s="117">
         <f t="shared" ref="E14:G14" si="23">+E12+E13</f>
         <v>4121628541.7582607</v>
       </c>
-      <c r="F14" s="163">
+      <c r="F14" s="117">
         <f t="shared" si="23"/>
         <v>4121628541.7582607</v>
       </c>
-      <c r="G14" s="163">
+      <c r="G14" s="117">
         <f t="shared" si="23"/>
         <v>4121628541.7582607</v>
       </c>
-      <c r="H14" s="163">
+      <c r="H14" s="117">
         <f t="shared" ref="H14" si="24">+H12+H13</f>
         <v>4121628541.7582607</v>
       </c>
-      <c r="I14" s="163">
+      <c r="I14" s="117">
         <f t="shared" ref="I14" si="25">+I12+I13</f>
         <v>4121628541.7582607</v>
       </c>
-      <c r="J14" s="163">
+      <c r="J14" s="117">
         <f t="shared" ref="J14" si="26">+J12+J13</f>
         <v>2778324529.8782606</v>
       </c>
-      <c r="K14" s="163">
+      <c r="K14" s="117">
         <f>+J14</f>
         <v>2778324529.8782606</v>
       </c>
-      <c r="L14" s="163">
+      <c r="L14" s="117">
         <f>+K14</f>
         <v>2778324529.8782606</v>
       </c>
-      <c r="M14" s="163">
+      <c r="M14" s="117">
         <f t="shared" ref="M14" si="27">+M12+M13</f>
         <v>3751160064.9822607</v>
       </c>
-      <c r="N14" s="163">
+      <c r="N14" s="117">
         <f t="shared" ref="N14" si="28">+N12+N13</f>
         <v>4349173026.5342607</v>
       </c>
-      <c r="O14" s="163">
+      <c r="O14" s="117">
         <f t="shared" ref="O14" si="29">+O12+O13</f>
         <v>4785275811.5430603</v>
       </c>
-      <c r="P14" s="163">
+      <c r="P14" s="117">
         <f t="shared" si="3"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="Q14" s="163">
+      <c r="Q14" s="117">
         <f t="shared" si="3"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="R14" s="163">
+      <c r="R14" s="117">
         <f t="shared" si="3"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="S14" s="163">
+      <c r="S14" s="117">
         <f t="shared" si="3"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="T14" s="163">
+      <c r="T14" s="117">
         <f t="shared" si="3"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="U14" s="163">
+      <c r="U14" s="117">
         <f t="shared" si="3"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="V14" s="163">
+      <c r="V14" s="117">
         <f t="shared" si="3"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="W14" s="163">
+      <c r="W14" s="117">
         <f t="shared" si="3"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="X14" s="163">
+      <c r="X14" s="117">
         <f t="shared" si="3"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="Y14" s="14"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y14" s="117">
+        <f t="shared" si="3"/>
+        <v>4785275811.5430603</v>
+      </c>
+      <c r="Z14" s="117">
+        <f t="shared" si="3"/>
+        <v>4785275811.5430603</v>
+      </c>
+      <c r="AA14" s="117">
+        <f t="shared" si="3"/>
+        <v>4785275811.5430603</v>
+      </c>
+      <c r="AB14" s="117">
+        <f t="shared" si="3"/>
+        <v>4785275811.5430603</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
         <v>78</v>
@@ -6283,102 +6472,120 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="163"/>
+      <c r="W15" s="117"/>
       <c r="X15" s="9"/>
-      <c r="Y15" s="14"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="160">
+      <c r="D16" s="115">
         <f>+D14+D15</f>
         <v>4517028541.7582607</v>
       </c>
-      <c r="E16" s="160">
+      <c r="E16" s="115">
         <f>+E14+E15</f>
         <v>4121628541.7582607</v>
       </c>
-      <c r="F16" s="160">
+      <c r="F16" s="115">
         <f>+F14+F15</f>
         <v>4121628541.7582607</v>
       </c>
-      <c r="G16" s="160">
+      <c r="G16" s="115">
         <f>+G14+G15</f>
         <v>4517028541.7582607</v>
       </c>
-      <c r="H16" s="160">
+      <c r="H16" s="115">
         <f t="shared" ref="H16:L16" si="30">+H14+H15</f>
         <v>4121628541.7582607</v>
       </c>
-      <c r="I16" s="160">
+      <c r="I16" s="115">
         <f t="shared" si="30"/>
         <v>4517028541.7582607</v>
       </c>
-      <c r="J16" s="160">
+      <c r="J16" s="115">
         <f>+J14+J15</f>
         <v>2778324529.8782606</v>
       </c>
-      <c r="K16" s="160">
+      <c r="K16" s="115">
         <f t="shared" si="30"/>
         <v>2778324529.8782606</v>
       </c>
-      <c r="L16" s="160">
+      <c r="L16" s="115">
         <f t="shared" si="30"/>
         <v>3371424529.8782606</v>
       </c>
-      <c r="M16" s="160">
+      <c r="M16" s="115">
         <f t="shared" ref="M16" si="31">+M14+M15</f>
         <v>3751160064.9822607</v>
       </c>
-      <c r="N16" s="160">
+      <c r="N16" s="115">
         <f t="shared" ref="N16" si="32">+N14+N15</f>
         <v>4349173026.5342607</v>
       </c>
-      <c r="O16" s="160">
+      <c r="O16" s="115">
         <f t="shared" ref="O16" si="33">+O14+O15</f>
         <v>4982975811.5430603</v>
       </c>
-      <c r="P16" s="160">
+      <c r="P16" s="115">
         <f>+P14+P15</f>
         <v>4785275811.5430603</v>
       </c>
-      <c r="Q16" s="160">
+      <c r="Q16" s="115">
         <f t="shared" ref="Q16:X16" si="34">+Q14+Q15</f>
         <v>4785275811.5430603</v>
       </c>
-      <c r="R16" s="160">
+      <c r="R16" s="115">
         <f t="shared" si="34"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="S16" s="160">
+      <c r="S16" s="115">
         <f t="shared" si="34"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="T16" s="160">
+      <c r="T16" s="115">
         <f t="shared" si="34"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="U16" s="160">
+      <c r="U16" s="115">
         <f t="shared" si="34"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="V16" s="160">
+      <c r="V16" s="115">
         <f t="shared" si="34"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="W16" s="160">
+      <c r="W16" s="115">
         <f t="shared" si="34"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="X16" s="160">
+      <c r="X16" s="115">
         <f t="shared" si="34"/>
         <v>4785275811.5430603</v>
       </c>
-      <c r="Y16" s="14"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y16" s="115">
+        <f t="shared" ref="Y16:AB16" si="35">+Y14+Y15</f>
+        <v>4785275811.5430603</v>
+      </c>
+      <c r="Z16" s="115">
+        <f t="shared" si="35"/>
+        <v>4785275811.5430603</v>
+      </c>
+      <c r="AA16" s="115">
+        <f t="shared" si="35"/>
+        <v>4785275811.5430603</v>
+      </c>
+      <c r="AB16" s="115">
+        <f t="shared" si="35"/>
+        <v>4785275811.5430603</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
         <v>79</v>
@@ -6388,51 +6595,51 @@
         <v>882772018.24173927</v>
       </c>
       <c r="E17" s="9">
-        <f t="shared" ref="E17:P17" si="35">+E7-E16</f>
+        <f t="shared" ref="E17:P17" si="36">+E7-E16</f>
         <v>1278172018.2417393</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>882772018.24173927</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>882772018.24173927</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-78424249.878260612</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-78424249.878260612</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-671524249.87826061</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1108660439.0177393</v>
       </c>
       <c r="N17" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1590607589.4657402</v>
       </c>
       <c r="O17" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1757025148.4569397</v>
       </c>
       <c r="P17" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1954725148.4569397</v>
       </c>
       <c r="Q17" s="9">
@@ -6440,36 +6647,51 @@
         <v>1954725148.4569397</v>
       </c>
       <c r="R17" s="9">
-        <f t="shared" ref="R17:X17" si="36">Q17</f>
+        <f t="shared" ref="R17:X17" si="37">Q17</f>
         <v>1954725148.4569397</v>
       </c>
       <c r="S17" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1954725148.4569397</v>
       </c>
       <c r="T17" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1954725148.4569397</v>
       </c>
       <c r="U17" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1954725148.4569397</v>
       </c>
       <c r="V17" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1954725148.4569397</v>
       </c>
-      <c r="W17" s="151">
-        <f t="shared" si="36"/>
+      <c r="W17" s="109">
+        <f t="shared" si="37"/>
         <v>1954725148.4569397</v>
       </c>
       <c r="X17" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1954725148.4569397</v>
       </c>
-      <c r="Y17" s="14"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y17" s="9">
+        <f t="shared" ref="Y17" si="38">X17</f>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="Z17" s="9">
+        <f t="shared" ref="Z17" si="39">Y17</f>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="AA17" s="9">
+        <f t="shared" ref="AA17" si="40">Z17</f>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="AB17" s="9">
+        <f t="shared" ref="AB17" si="41">AA17</f>
+        <v>1954725148.4569397</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
         <v>86</v>
@@ -6483,84 +6705,99 @@
         <v>2160944036.4834785</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" ref="F18:V18" si="37">F17+E18</f>
+        <f t="shared" ref="F18:V18" si="42">F17+E18</f>
         <v>3439116054.7252178</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>4321888072.9669571</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>5600060091.2086964</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>6482832109.4504356</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>6404407859.572175</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>6325983609.6939144</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>5654459359.8156538</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>6763119798.8333931</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>8353727388.2991333</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>10110752536.756073</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>12065477685.213013</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>14020202833.669952</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>15974927982.126892</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>17929653130.583832</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>19884378279.040771</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>21839103427.497711</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>23793828575.954651</v>
       </c>
-      <c r="W18" s="152">
+      <c r="W18" s="110">
         <f>W17+V18</f>
         <v>25748553724.411591</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" ref="X18" si="38">X17+W18</f>
+        <f t="shared" ref="X18" si="43">X17+W18</f>
         <v>27703278872.86853</v>
       </c>
-      <c r="Y18" s="14"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y18" s="9">
+        <f t="shared" ref="Y18" si="44">Y17+X18</f>
+        <v>29658004021.32547</v>
+      </c>
+      <c r="Z18" s="9">
+        <f t="shared" ref="Z18" si="45">Z17+Y18</f>
+        <v>31612729169.78241</v>
+      </c>
+      <c r="AA18" s="9">
+        <f t="shared" ref="AA18" si="46">AA17+Z18</f>
+        <v>33567454318.239349</v>
+      </c>
+      <c r="AB18" s="9">
+        <f t="shared" ref="AB18" si="47">AB17+AA18</f>
+        <v>35522179466.696289</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -6580,11 +6817,14 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="150"/>
+      <c r="W19" s="108"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="14"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -6604,38 +6844,44 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="150"/>
+      <c r="W20" s="108"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="14"/>
-    </row>
-    <row r="21" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="157" t="s">
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+    </row>
+    <row r="21" spans="2:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="C21" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="144"/>
-      <c r="V21" s="144"/>
-      <c r="W21" s="158"/>
-      <c r="X21" s="144"/>
-      <c r="Y21" s="14"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
         <v>87</v>
       </c>
@@ -6648,84 +6894,99 @@
         <v>1278172018.2417393</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" ref="F22:X22" si="39">E22</f>
+        <f t="shared" ref="F22:X22" si="48">E22</f>
         <v>1278172018.2417393</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
-      <c r="W22" s="151">
-        <f t="shared" si="39"/>
+      <c r="W22" s="109">
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
       <c r="X22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1278172018.2417393</v>
       </c>
-      <c r="Y22" s="14"/>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y22" s="9">
+        <f t="shared" ref="Y22" si="49">X22</f>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="Z22" s="9">
+        <f t="shared" ref="Z22" si="50">Y22</f>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="AA22" s="9">
+        <f t="shared" ref="AA22" si="51">Z22</f>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="AB22" s="9">
+        <f t="shared" ref="AB22" si="52">AA22</f>
+        <v>1278172018.2417393</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
         <v>86</v>
       </c>
@@ -6738,84 +6999,99 @@
         <v>2556344036.4834785</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" ref="F23:X23" si="40">F22+E23</f>
+        <f t="shared" ref="F23:X23" si="53">F22+E23</f>
         <v>3834516054.7252178</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>5112688072.9669571</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>6390860091.2086964</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>7669032109.4504356</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>8947204127.6921749</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>10225376145.933914</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>11503548164.175653</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>12781720182.417393</v>
       </c>
       <c r="N23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>14059892200.659132</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>15338064218.900871</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>16616236237.142611</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>17894408255.38435</v>
       </c>
       <c r="R23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>19172580273.626091</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>20450752291.867828</v>
       </c>
       <c r="T23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>21728924310.109566</v>
       </c>
       <c r="U23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>23007096328.351303</v>
       </c>
       <c r="V23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>24285268346.59304</v>
       </c>
-      <c r="W23" s="152">
-        <f t="shared" si="40"/>
+      <c r="W23" s="110">
+        <f t="shared" si="53"/>
         <v>25563440364.834778</v>
       </c>
       <c r="X23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>26841612383.076515</v>
       </c>
-      <c r="Y23" s="14"/>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y23" s="9">
+        <f t="shared" ref="Y23" si="54">Y22+X23</f>
+        <v>28119784401.318253</v>
+      </c>
+      <c r="Z23" s="9">
+        <f t="shared" ref="Z23" si="55">Z22+Y23</f>
+        <v>29397956419.55999</v>
+      </c>
+      <c r="AA23" s="9">
+        <f t="shared" ref="AA23" si="56">AA22+Z23</f>
+        <v>30676128437.801727</v>
+      </c>
+      <c r="AB23" s="9">
+        <f t="shared" ref="AB23" si="57">AB22+AA23</f>
+        <v>31954300456.043465</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -6839,68 +7115,466 @@
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="D26" s="149"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
+    <row r="25" spans="2:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="C25" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="14">
+        <f>+D22</f>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" ref="E25:AB25" si="58">+E22</f>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="N25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="P25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="R25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="S25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="T25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="U25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="V25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="W25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="X25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="Y25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="Z25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="AA25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="AB25" s="14">
+        <f t="shared" si="58"/>
+        <v>1278172018.2417393</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="C26" s="112" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="107">
+        <f>+D17</f>
+        <v>882772018.24173927</v>
+      </c>
+      <c r="E26" s="107">
+        <f t="shared" ref="E26:AB26" si="59">+E17</f>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="F26" s="107">
+        <f t="shared" si="59"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="G26" s="107">
+        <f t="shared" si="59"/>
+        <v>882772018.24173927</v>
+      </c>
+      <c r="H26" s="107">
+        <f t="shared" si="59"/>
+        <v>1278172018.2417393</v>
+      </c>
+      <c r="I26" s="107">
+        <f t="shared" si="59"/>
+        <v>882772018.24173927</v>
+      </c>
+      <c r="J26" s="107">
+        <f t="shared" si="59"/>
+        <v>-78424249.878260612</v>
+      </c>
+      <c r="K26" s="107">
+        <f t="shared" si="59"/>
+        <v>-78424249.878260612</v>
+      </c>
+      <c r="L26" s="107">
+        <f t="shared" si="59"/>
+        <v>-671524249.87826061</v>
+      </c>
+      <c r="M26" s="107">
+        <f t="shared" si="59"/>
+        <v>1108660439.0177393</v>
+      </c>
+      <c r="N26" s="107">
+        <f t="shared" si="59"/>
+        <v>1590607589.4657402</v>
+      </c>
+      <c r="O26" s="107">
+        <f t="shared" si="59"/>
+        <v>1757025148.4569397</v>
+      </c>
+      <c r="P26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="Q26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="R26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="S26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="T26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="U26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="V26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="W26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="X26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="Y26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="Z26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="AA26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+      <c r="AB26" s="107">
+        <f t="shared" si="59"/>
+        <v>1954725148.4569397</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C27" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="14">
+        <f>+D26-D25</f>
+        <v>-395400000</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" ref="E27:AB27" si="60">+E26-E25</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="60"/>
+        <v>-395400000</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="60"/>
+        <v>-395400000</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="60"/>
+        <v>-1356596268.1199999</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="60"/>
+        <v>-1356596268.1199999</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="60"/>
+        <v>-1949696268.1199999</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="60"/>
+        <v>-169511579.22399998</v>
+      </c>
+      <c r="N27" s="14">
+        <f t="shared" si="60"/>
+        <v>312435571.22400093</v>
+      </c>
+      <c r="O27" s="14">
+        <f t="shared" si="60"/>
+        <v>478853130.21520042</v>
+      </c>
+      <c r="P27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+      <c r="R27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+      <c r="S27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+      <c r="T27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+      <c r="U27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+      <c r="V27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+      <c r="W27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+      <c r="X27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+      <c r="Y27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+      <c r="Z27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+      <c r="AA27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+      <c r="AB27" s="14">
+        <f t="shared" si="60"/>
+        <v>676553130.21520042</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="137">
+        <f>+IRR(D27:AB27)</f>
+        <v>4.3918892120510256E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="138">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="5">
+        <f>+D27</f>
+        <v>-395400000</v>
+      </c>
+      <c r="E31" s="139">
+        <f t="shared" ref="E31:AB31" si="61">+PV($D$30,E4,,E27,0)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="139">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="139">
+        <f t="shared" si="61"/>
+        <v>-383885358.55535048</v>
+      </c>
+      <c r="H31" s="139">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="139">
+        <f t="shared" si="61"/>
+        <v>-376395830.55500853</v>
+      </c>
+      <c r="J31" s="139">
+        <f t="shared" si="61"/>
+        <v>-1278734506.8016129</v>
+      </c>
+      <c r="K31" s="139">
+        <f t="shared" si="61"/>
+        <v>-1266199135.3615339</v>
+      </c>
+      <c r="L31" s="139">
+        <f t="shared" si="61"/>
+        <v>-1801938576.1219051</v>
+      </c>
+      <c r="M31" s="139">
+        <f t="shared" si="61"/>
+        <v>-155129366.91009974</v>
+      </c>
+      <c r="N31" s="139">
+        <f>+PV($D$30,N4,,N27,0)*-1</f>
+        <v>283124042.7831257</v>
+      </c>
+      <c r="O31" s="139">
+        <f t="shared" si="61"/>
+        <v>429675149.2572999</v>
+      </c>
+      <c r="P31" s="139">
+        <f t="shared" si="61"/>
+        <v>601120364.8801347</v>
+      </c>
+      <c r="Q31" s="139">
+        <f t="shared" si="61"/>
+        <v>595227611.52602696</v>
+      </c>
+      <c r="R31" s="139">
+        <f t="shared" si="61"/>
+        <v>589392624.54305089</v>
+      </c>
+      <c r="S31" s="139">
+        <f t="shared" si="61"/>
+        <v>583614837.65031278</v>
+      </c>
+      <c r="T31" s="139">
+        <f t="shared" si="61"/>
+        <v>577893690.11814308</v>
+      </c>
+      <c r="U31" s="139">
+        <f t="shared" si="61"/>
+        <v>572228626.71367764</v>
+      </c>
+      <c r="V31" s="139">
+        <f t="shared" si="61"/>
+        <v>566619097.64697254</v>
+      </c>
+      <c r="W31" s="139">
+        <f t="shared" si="61"/>
+        <v>561064558.51764786</v>
+      </c>
+      <c r="X31" s="139">
+        <f t="shared" si="61"/>
+        <v>555564470.26205337</v>
+      </c>
+      <c r="Y31" s="139">
+        <f t="shared" si="61"/>
+        <v>550118299.10095394</v>
+      </c>
+      <c r="Z31" s="139">
+        <f t="shared" si="61"/>
+        <v>544725516.48772538</v>
+      </c>
+      <c r="AA31" s="139">
+        <f t="shared" si="61"/>
+        <v>539385599.0570606</v>
+      </c>
+      <c r="AB31" s="139">
+        <f t="shared" si="61"/>
+        <v>534098028.57417613</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="5">
+        <f>+SUM(D31:AB31)</f>
+        <v>2426169742.8128505</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:P17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
@@ -6913,21 +7587,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010008F787A557CF4E41B7FD33428A03229B" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b898884e0f5772ff725eb5c83ac2d376">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="043edc3f-420b-4e08-b331-83684868bc7b" xmlns:ns4="7bb47a53-d0be-4ae6-b388-d820c34db808" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12d973c3c360468056e72855c6bd0273" ns3:_="" ns4:_="">
     <xsd:import namespace="043edc3f-420b-4e08-b331-83684868bc7b"/>
@@ -7130,32 +7789,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BE4D35-E99D-4190-8343-7F975521DD37}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="043edc3f-420b-4e08-b331-83684868bc7b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7bb47a53-d0be-4ae6-b388-d820c34db808"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EBD61DB-D121-4C41-A471-4418FD648C5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6227983D-C9C3-450E-9680-B84725F81285}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7172,4 +7821,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EBD61DB-D121-4C41-A471-4418FD648C5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BE4D35-E99D-4190-8343-7F975521DD37}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="043edc3f-420b-4e08-b331-83684868bc7b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7bb47a53-d0be-4ae6-b388-d820c34db808"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>